--- a/reports/model_comparisons.xlsx
+++ b/reports/model_comparisons.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="61">
   <si>
     <t>Model Name</t>
   </si>
@@ -65,6 +65,30 @@
     <t>llama3_8b-instruct-sentiment_analysis-q8_0</t>
   </si>
   <si>
+    <t>mistral_7b-instruct-fp16</t>
+  </si>
+  <si>
+    <t>mistral_7b-instruct-q4_K_M</t>
+  </si>
+  <si>
+    <t>mistral_7b-instruct-q5_K_M</t>
+  </si>
+  <si>
+    <t>mistral_7b-instruct-q8_0</t>
+  </si>
+  <si>
+    <t>dolphin-mistral_7b-v2.8-fp16</t>
+  </si>
+  <si>
+    <t>dolphin-mistral_7b-v2.8-q4_K_M</t>
+  </si>
+  <si>
+    <t>dolphin-mistral_7b-v2.8-q5_K_M</t>
+  </si>
+  <si>
+    <t>dolphin-mistral_7b-v2.8-q8_0</t>
+  </si>
+  <si>
     <t>fp16</t>
   </si>
   <si>
@@ -77,28 +101,52 @@
     <t>q8_0</t>
   </si>
   <si>
-    <t>["The article does not provide any specific insights or information about Nvidia's stock value, nor does it contain any language that could be interpreted as positive or negative towards the company. The title suggests a focus on Coatue Management's investment strategy and 13F filing, which is unrelated to Nvidia.", "The article mentions Nvidia's stock being chosen as the 'IBD Stock Of The Day', indicating a positive sentiment towards the company. Additionally, the phrase 'anticipation builds' implies excitement and optimism among investors, which further reinforces a positive sentiment.", "The article mentions Nvidia as one of the 'Magnificent Seven stocks' that had big gains in 2023, but does not provide any specific information about its performance in the early part of the second quarter of 2024. The tone is neutral and focuses on the divergence of returns among the mentioned stocks.", "The article expresses a highly positive tone, using superlatives such as 'massively' and emphasizing the transformative impact of Nvidia's technology on people's lives. This suggests that the author believes Nvidia's products will have a significant and lasting effect, which is likely to positively impact its stock value.", "The article presents a positive sentiment towards Nvidia's potential short-term stock value due to optimistic revenue estimates and analysts' projections."]</t>
-  </si>
-  <si>
-    <t>["The article does not provide any direct insights or mentions about Nvidia's stock value, but it discusses Coatue Management's latest 13F filing. The tone of the article is neutral and informative, focusing on providing an overview of the filing rather than expressing a sentiment towards Nvidia's stock.", "The article highlights Nvidia's upcoming quarterly earnings report, which creates excitement and anticipation among investors, indicating a positive sentiment towards the company's stock value.", "The article mentions that Nvidia was one of the 'Magnificent Seven' stocks that performed well in 2023, but notes a divergence in returns for these stocks at the start of Q2 2024. This implies a neutral sentiment towards Nvidia's short-term stock value.", "The article's tone is overwhelmingly positive, using words like 'massively' and 'change our lives', indicating a strong enthusiasm for the potential impact of Nvidia's products. This sentiment suggests that the author expects significant growth in Nvidia's stock value.", "The article presents a positive outlook on Nvidia's upcoming earnings report, with analysts projecting high revenue estimates. The discussion highlights the company's leadership in AI and its potential drivers for future growth."]</t>
-  </si>
-  <si>
-    <t>["The article does not provide any information about Nvidia's stock value, nor does it contain any sentiment-revealing language. The title suggests that the article will discuss Coatue Management's latest 13F filing, which is a regulatory document that discloses the company's holdings and transactions.", "The article highlights Nvidia's stock being chosen as the 'IBD Stock Of The Day', indicating a positive sentiment towards the company. Additionally, the mention of 'anticipation building' for the upcoming quarterly earnings report suggests that investors are optimistic about the company's performance.", "The article mentions Nvidia as one of the 'Magnificent Seven' stocks that had big gains in 2023, but does not provide any specific information about its performance in the early part of the second quarter of 2024. The tone is neutral and focuses on the overall market trend.", "The article expresses a highly positive tone, stating that the product releases will 'massively' change people's lives. This language suggests a strong enthusiasm and optimism towards the potential impact of Nvidia's technology.", "The article presents a positive outlook on Nvidia's upcoming earnings report, with analysts projecting high revenue estimates and highlighting the company's leadership in AI technology."]</t>
-  </si>
-  <si>
-    <t>["The article does not provide any specific insights or mentions about Nvidia's stock value, instead it focuses on Coatue Management's latest 13F filing. Therefore, the sentiment analysis is neutral.", "The article highlights Nvidia's stock being named 'IBD Stock Of The Day', indicating a positive sentiment towards the company. Additionally, the mention of anticipation building for the quarterly earnings report suggests that investors are optimistic about the company's performance.", "The article mentions Nvidia as one of the 'Magnificent Seven' stocks that had big gains in 2023, but does not provide any specific information about its performance in the early part of the second quarter of 2024. The tone is neutral and focuses on the divergence of returns among these top-performing stocks.", "The article's statement about the technology having a massive impact on people's lives implies that it will be highly successful and valuable, which is likely to positively affect Nvidia's stock value.", "The article presents a positive outlook on Nvidia's upcoming earnings report, with analysts being 'clearly optimistic' and revenue estimates being 'bullish'. The discussion highlights the company's strong position in AI and its ability to drive growth. This suggests that the sentiment towards Nvidia's short-term stock value is likely to be positive."]</t>
-  </si>
-  <si>
-    <t>["The article provides an analysis of Coatue Management's latest 13F filing, which may offer insights into their investment strategies and portfolio composition. This could be seen as a positive development for the company, potentially boosting investor confidence.", "The article presents Nvidia's stock as the 'IBD Stock Of The Day', indicating a positive sentiment towards the company's upcoming quarterly earnings report, which could lead to increased investor confidence and potentially boost the stock value.", "The article highlights a significant divergence in returns among the 'Magnificent Seven' stocks, including Apple, Microsoft, Alphabet, Amazon, Nvidia, Meta Platforms, and Tesla, during the early part of the second quarter of 2024. This divergence suggests that some of these high-performing stocks may be experiencing a slowdown or facing challenges, which could negatively impact their stock values.", 'The sentiment is positive based on the financial context of the sentence.', "The article expresses optimism towards Nvidia's upcoming earnings report, with revenue estimates being bullish. The mention of artificial intelligence (AI) as a driving force for the company and its continued leadership in the tech space suggests positive growth prospects. Additionally, the key factors analysts expect to propel Nvidia's earnings report further support the optimistic sentiment."]</t>
-  </si>
-  <si>
-    <t>["The article provides an analysis of Coatue Management's latest 13F filing, which may offer insights into their investment strategies and portfolio composition. This information could be useful for investors looking to understand Coatue Management's approach to investing and potentially make informed decisions.", "The article presents Nvidia's stock as the 'IBD Stock Of The Day', indicating a positive sentiment towards the company's upcoming quarterly earnings report, which could lead to increased investor confidence and potentially boost the stock value.", "The article describes the 'Magnificent Seven' stocks as having big gains in 2023, indicating positive performance. However, it also mentions a significant divergence in returns during the early part of the second quarter of 2024, suggesting that not all these stocks are performing equally well.", 'The sentiment is positive based on the financial context of the sentence.', "The article presents a positive outlook on Nvidia's upcoming earnings report, with revenue estimates projected at $24.51 billion. The discussion highlights artificial intelligence as a driving force for the company and its continued leadership in the tech space."]</t>
-  </si>
-  <si>
-    <t>["The article provides an analysis of Coatue Management's latest 13F filing, which may indicate their investment strategies and potential market views. However, without specific information on the companies or sectors they are investing in, it is difficult to determine a clear sentiment towards any particular company's stock value.", "The article presents Nvidia's stock as the 'IBD Stock Of The Day', indicating a positive sentiment towards the company, particularly in anticipation of its upcoming quarterly earnings report.", "The article reports that the Magnificent Seven stocks (Apple, Microsoft, Alphabet, Amazon, Nvidia, Meta Platforms, and Tesla) had big gains in 2023, but their performance diverged significantly in the early part of the second quarter of 2024. This suggests a mixed sentiment towards these companies' future stock value.", 'The sentiment is positive based on the financial context of the sentence.', "The article presents a positive outlook on Nvidia's upcoming earnings report, with revenue estimates projected at $24.51 billion. The mention of artificial intelligence (AI) as a driving force for the company and its continued leadership in the tech space suggests strong growth prospects. Analysts' expectations of key factors propelling the earnings report further reinforce the optimistic sentiment."]</t>
-  </si>
-  <si>
-    <t>["The article title suggests a neutral, informative tone about Coatue Management's latest 13F filing. There is no indication of positive or negative sentiment towards the company's stock value based on this information alone.", "The article presents Nvidia's stock as the 'IBD Stock Of The Day', indicating a positive sentiment towards the company's upcoming quarterly earnings report, which could lead to increased investor confidence and a potential boost in stock value.", 'The article highlights the positive performance of Apple, Microsoft, Google parent Alphabet, Amazon, Nvidia, Meta Platforms, and Tesla in 2023, indicating strong market sentiment towards these companies. However, it also mentions a significant divergence in returns during the early part of the second quarter of 2024, suggesting potential challenges or uncertainties for some of these companies.', 'The sentiment is positive based on the financial context of the sentence.', "The article expresses optimism towards Nvidia's upcoming earnings report, with revenue estimates being bullish at $24.51 billion. The discussion on artificial intelligence (AI) as a driving force for the company and its continued leadership in the tech space suggests positive sentiment. Additionally, the exploration of key factors expected to propel Nvidia's earnings report further reinforces the optimistic outlook."]</t>
+    <t>["The article mentions that Nvidia is flashing a buy signal, which indicates a positive sentiment towards the stock's potential short-term value.", "The article mentions that Nvidia's stock finished lower despite being on track to set a record high, indicating a slight decline in sentiment towards its short-term value. However, the optimism around the company's earnings report and upbeat analyst estimates suggests a positive outlook.", "The article discusses Wolfe Research's positive stance on Nvidia (NVDA) and Advanced Micro Devices (AMD), with a raised price target of $1,200 for Nvidia. The analysts are optimistic about AMD's robust AI product lineup and its potential for strong performance over the next 12 months.", "The article mentions that Nvidia's stock is going 'AWOL', which implies a negative trend. However, the overall tone of the article is focused on Core &amp; Main (CNM) stock being in a 'buy zone' due to demand from top funds. This suggests that the author is more optimistic about CNM than Nvidia.", "The article mentions that Broadcom has taken over the top spot from Nvidia in a list of new buys by the best mutual funds, implying a negative sentiment towards Nvidia's stock value."]</t>
+  </si>
+  <si>
+    <t>['The article mentions that Nvidia is flashing a buy signal, which indicates a positive sentiment towards its potential short-term stock value.', "The article discusses Nvidia's stock price finishing lower despite being on track to set a record high, indicating a slight negative sentiment towards its short-term value. The optimism around the chip maker ahead of its earnings report is mentioned as a positive factor, but it does not outweigh the negative impact of the stock closing down.", "The article discusses Wolfe Research's positive outlook on Nvidia (NVDA) and Advanced Micro Devices (AMD), with a raised price target for NVDA to $1,200. The analysts' shift in priority towards AMD is seen as a tactical move, considering its robust AI product lineup and potential for strong performance over the next 12 months.", "The article mentions that Nvidia's stock (Mag 7) is going 'AWOL', which implies a negative trend. However, the same sentence also highlights Core &amp; Main's (CNM) stock being lifted into a buy zone due to demand from top funds, indicating a positive sentiment towards CNM. The overall tone of the article seems to be more focused on the positive performance of CNM rather than Nvidia.", "The article mentions that Broadcom has taken over the top spot from Nvidia in a list of new buys by the best mutual funds, implying a negative sentiment towards Nvidia's stock value."]</t>
+  </si>
+  <si>
+    <t>["The article mentions that Nvidia joined other stocks in flashing buy signals, indicating a positive trend for the company's stock value.", "The article mentions that Nvidia's stock finished lower despite being on track to set a record high, indicating some caution or uncertainty around the company's earnings report. However, it also notes that optimism is rising and analyst estimates are upbeat, which suggests a positive outlook.", "The article discusses Wolfe Research reiterating its Outperform rating on Nvidia and raising its price target to $1,200, citing the company's robust AI product lineup. The analysts also added AMD to their Wolfe Alpha List, which is a group of stocks expected to show big mean reversion over a 12-month time frame. While Nvidia has already risen significantly this year, the analysts expect a stronger second half.", "The article mentions that Nvidia's stock is going 'AWOL', which implies a negative trend. However, the overall tone of the article is focused on Core &amp; Main's (CNM) stock performance, which is described as being lifted into a buy zone due to demand from top funds.", "The article mentions that Broadcom has taken over the top spot from Nvidia, implying a negative sentiment towards Nvidia's stock value."]</t>
+  </si>
+  <si>
+    <t>['The article mentions that Nvidia joined other companies like Walmart and Tesla rival BYD in flashing buy signals, indicating a positive sentiment towards the stock value of Nvidia.', "The article mentions that Nvidia's stock finished lower despite being on track to set a record high, indicating some caution or uncertainty in the market. However, it also highlights optimism around the chip maker ahead of its earnings report and notes that shares were lifted by upbeat analyst estimates.", "The article highlights Wolfe Research's positive stance on Nvidia, reiterating its Outperform rating and raising its price target to $1,200. The analysts also added Advanced Micro Devices (AMD) to the Wolfe Alpha List, citing its robust AI product lineup. While the analyst acknowledges that Nvidia has already risen significantly this year, they expect a stronger second half.", "The article mentions that Nvidia's stock is going 'AWOL', which implies a negative trend. However, the overall tone of the article is focused on Core &amp; Main (CNM) stock and its demand from top funds, which is presented as positive. The mention of Nvidia is used to compare it unfavorably with CNM, implying that CNM's performance is better.", "The article mentions Broadcom taking over the top spot from Nvidia, implying a negative sentiment towards Nvidia's stock value."]</t>
+  </si>
+  <si>
+    <t>["The article reports that the market is holding near record highs, with several companies flashing buy signals, including Walmart, Tesla rival BYD, and Nvidia. This suggests a positive sentiment towards these companies' stock values.", "The article reports that Nvidia's stock finished lower on Thursday, despite being on track to set a record high due to optimism around the chip maker ahead of its earnings report next week. The marketwide rally sparked by April's inflation data and upbeat analyst estimates lifted Nvidia shares initially, but ultimately led to a decline in the stock price.", "The article reports that Wolfe Research has reiterated its 'Outperform' rating on Nvidia and Advanced Micro Devices, with a price target increase for Nvidia to $1,200. Additionally, AMD was added to the Wolfe Alpha List due to its robust AI product lineup. The analysts expect a stronger second half from Nvidia, which suggests continued growth potential.", "The article suggests that despite the volatility in Mag 7 stocks like Nvidia, Core &amp; Main is experiencing increased demand from top funds, leading to a positive impact on CNM stock and placing it in a 'buy zone'. This implies a strong sentiment towards CNM stock.", "The article suggests a significant shift in market sentiment towards Broadcom, as it has surpassed Nvidia to become the top buy among the best mutual funds. This implies strong investor confidence and potential future growth for Broadcom's stock value."]</t>
+  </si>
+  <si>
+    <t>["The article reports that the market is holding near record highs, with several companies including Walmart, Tesla's rival BYD, and Nvidia flashing 'buy' signals, indicating a positive sentiment towards these stocks.", "The article reports that Nvidia's stock finished lower on Thursday, despite being on track to set a record high due to rising optimism around the chip maker ahead of its earnings report next week. The marketwide rally sparked by April's inflation data and upbeat analyst estimates lifted Nvidia shares, but the stock ultimately closed down 0.3%.", "The article reports that Wolfe Research has reiterated its Outperform rating on Nvidia and Advanced Micro Devices, with a price target increase for Nvidia to $1,200. Additionally, AMD was added to the Wolfe Alpha List due to its robust AI product lineup. The analysts' positive sentiment towards both companies suggests an optimistic outlook for their future performance.", "The article suggests that despite other stocks in the same category experiencing volatility (AWOL), Core &amp; Main's stock (CNM) is seeing increased demand from top funds, leading to a further 'buy' zone.", "The article suggests that Broadcom has surpassed Nvidia as the top stock in a list of new buys by the best mutual funds, implying a positive sentiment towards Broadcom's future stock value."]</t>
+  </si>
+  <si>
+    <t>["The article reports that the market is holding near record highs, with several companies, including Walmart, Tesla rival BYD, and Nvidia, flashing buy signals. This suggests a positive sentiment towards these companies' stock values.", "The article reports that Nvidia's stock finished lower despite being on track to set a record high, due to optimism around the chip maker ahead of its earnings report. The marketwide rally and upbeat analyst estimates contributed to this optimism.", "The article reports that Wolfe Research has reiterated its 'Outperform' rating on Nvidia and Advanced Micro Devices (AMD), with a price target increase for Nvidia to $1,200. Additionally, AMD was added to the Wolfe Alpha List due to its robust AI product lineup. The analysts expect a stronger second half from Nvidia, indicating confidence in the company's future performance.", 'The article suggests that despite other Mag 7 stocks experiencing a decline in value (like Nvidia), Core &amp; Main is seeing increased demand from top funds, leading to an increase in the value of CNM stock.', "The article suggests that Broadcom has surpassed Nvidia as the top stock in a list of new buys by the best mutual funds, indicating a positive sentiment towards Broadcom's future stock value."]</t>
+  </si>
+  <si>
+    <t>["The article reports that the market is holding near record highs, with several companies flashing buy signals, including Walmart and Tesla rival BYD, as well as Nvidia. This suggests a positive sentiment towards these companies' stock values.", "The article reports that Nvidia's stock finished lower on Thursday, despite being on track to set a record high due to rising optimism around the chip maker ahead of its earnings report. The marketwide rally sparked by April's inflation data and upbeat analyst estimates lifted Nvidia shares, but ultimately led to a decline in the stock price.", 'The article reports that Wolfe Research has reiterated its Outperform rating on Nvidia and Advanced Micro Devices, with a price target increase for Nvidia to $1,200. Additionally, AMD was added to the Wolfe Alpha List due to its robust AI product lineup. This suggests that both companies are expected to perform well in the future, which would positively impact their stock values.', "The article suggests that while other stocks in the Mag 7 group are experiencing a decline (AWOL), Core &amp; Main is seeing increased demand from top funds, leading to an increase in CNM stock value and entering another 'buy zone'. This implies a positive sentiment towards CNM stock.", "The article suggests a significant shift in investor sentiment towards Broadcom, as it has surpassed Nvidia to become the top buy among leading mutual funds. This change in market perception could lead to increased investor confidence and potentially drive up Broadcom's stock value."]</t>
+  </si>
+  <si>
+    <t>["The sentiment analysis was performed by analyzing the text of the article for positive and negative words and phrases. The presence of positive words such as 'market rally', 'record highs', 'buy signals', and 'joining Nvidia' indicates a positive sentiment towards the potential short-term stock value of Nvidia.", "The sentiment analysis was performed by analyzing the text of the article for positive and negative words and phrases related to Nvidia's potential short-term stock value. The sentiment score was calculated based on the ratio of positive to negative words and phrases.", "The sentiment analysis was performed using natural language processing techniques to identify positive and negative words in the article. The presence of the word 'usurping' indicates a negative sentiment towards Nvidia's potential short-term stock value.", 'The sentiment analysis was performed by analyzing the text of the article and identifying positive and negative words and phrases. The sentiment value was then calculated based on a weighted average of these values.', "The sentiment analysis was performed by analyzing the text of the article for positive and negative words and phrases related to Nvidia's potential short-term stock value. The sentiment score was then calculated based on the overall sentiment of the article."]</t>
+  </si>
+  <si>
+    <t>["The sentiment analysis was performed by analyzing the text of the article for positive and negative words and phrases. The presence of positive words such as 'market rally', 'record highs', 'buy signals', and 'Nvidia' indicates a positive sentiment towards the potential short-term stock value of Nvidia.", 'The sentiment analysis was performed using natural language processing techniques to identify positive and negative words in the article. The sentiment value is based on the ratio of positive to negative words.', "The sentiment analysis is based on the presence of positive keywords such as 'lifting' and 'yet another buy zone', and the absence of negative keywords such as 'AWOL'. The article also mentions that Core &amp; Main sees demand from top funds, which further supports a positive sentiment.", "The sentiment analysis was performed using a rule-based approach that looked for positive and negative keywords in the article. The presence of 'usurping' and 'best' were considered as positive indicators, while the absence of 'Nvidia' was considered as a negative indicator.", 'The sentiment analysis was performed using natural language processing techniques and machine learning algorithms to identify positive, negative, and neutral words and phrases in the article. The sentiment value is based on the overall tone of the text.']</t>
+  </si>
+  <si>
+    <t>["The sentiment analysis was performed by analyzing the text of the article for positive and negative words and phrases. The presence of positive keywords such as 'market rally', 'record highs', 'buy signals', and 'joining Nvidia' indicates a positive sentiment towards the potential short-term stock value of Nvidia.", 'The sentiment analysis was performed on the provided article about the potential short-term stock value of Nvidia. The reasoning used to determine the sentiment value is based on the presence of positive and negative keywords in the text, as well as the overall tone and language used.', "The sentiment analysis was performed using a rule-based approach that takes into account the presence of positive and negative keywords in the article. The article mentions Broadcom's usurpation of Nvidia's top spot on a list of new buys by mutual funds, which can be seen as a positive development for Broadcom and potentially negative for Nvidia. Therefore, the sentiment value was calculated based on the presence of positive keywords such as 'usurpation' and 'top spot', and the absence of negative keywords such as 'Nvidia'.", "The sentiment analysis is based on the presence of positive keywords such as 'anticipated', 'cutting-edge', 'powering', 'revolution', 'strong buy', and 'explode'. The article also mentions Nvidia's market cap and stock price, which are both positive indicators. Additionally, the article highlights Nvidia's latest chip and its ability to run large language models at a lower cost, which is seen as a major bullish catalyst. However, there are also some negative indicators such as Chinese regulators urging local tech firms to buy fewer Nvidia chips, which could impact the company's outlook. Based on these factors, the sentiment analysis classifies the article as having a positive sentiment.", "The sentiment analysis was performed by analyzing the text of the article for positive and negative words and phrases related to Nvidia's potential short-term stock value. The sentiment score was then calculated based on the overall sentiment of the article."]</t>
+  </si>
+  <si>
+    <t>["The sentiment analysis was performed by analyzing the text of the article for positive and negative words and phrases. The presence of positive keywords such as 'market rally', 'record highs', 'buy signals', and 'joining Nvidia' indicates a positive sentiment towards the potential short-term stock value of Nvidia.", 'The sentiment analysis was performed using natural language processing techniques to identify positive and negative words in the article. The sentiment value is based on the ratio of positive to negative words.', "The sentiment analysis was performed by analyzing the text of the article for positive and negative words and phrases related to Nvidia's potential short-term stock value. The sentiment was determined based on the overall tone and language used in the article.", "The sentiment analysis is based on the presence of positive and negative words in the article, as well as the overall tone. The reasoning used to determine the sentiment value is as follows: Positive words such as 'anticipated', 'cutting-edge', 'powering', 'explode', 'major bullish catalyst' are assigned a positive score, while negative words such as 'impact' and 'regulators' are assigned a negative score. The overall sentiment value is calculated by summing up the scores of all the words in the article.", 'The sentiment analysis was performed by analyzing the text of the article for positive and negative words, phrases, and sentiment indicators. The sentiment value was then calculated based on the weighted average of these factors.']</t>
+  </si>
+  <si>
+    <t>['The article mentions that the market rally is holding near record highs and that BYD and Nvidia have flashed buy signals. This indicates a positive sentiment towards the potential short-term stock value of Nvidia.', "The article discusses Nvidia's stock performance, mentioning that it finished lower on Thursday despite being on track to set a record high due to optimism around the company ahead of its earnings report next week. The marketwide rally and upbeat analyst estimates are also mentioned as contributing factors.", "The article discusses Wolfe Research's Outperform rating on Nvidia (NVDA) and Advanced Micro Devices (AMD), raising its price target for Nvidia to $1,200, and adding AMD to the Wolfe Alpha List. The analysts mention that while NVIDIA has risen a lot this year, they anticipate a much stronger second half.", "The article mentions that Nvidia's stock value is going 'AWOL', which implies a negative sentiment towards its short-term potential. However, it also states that Core &amp; Main sees demand from top funds and lifts CNM stock into another buy zone. This suggests a positive sentiment for Core &amp; Main's stock. Therefore, the overall sentiment of the article leans slightly more towards negative due to the focus on Nvidia's stock.", "The article mentions that Broadcom has overtaken Nvidia in a list of new buys by the best mutual funds, which suggests a negative sentiment towards Nvidia's short-term stock value."]</t>
+  </si>
+  <si>
+    <t>["The article mentions that the market rally is holding near record highs and that BYD and Nvidia have flashed buy signals. This indicates a positive sentiment towards Nvidia's potential short-term stock value.", "The article discusses Nvidia's stock performance, market rally, and optimism surrounding its earnings report. The stock closed down 0.3% at $943.59, indicating a slightly negative sentiment.", 'The article discusses Wolfe Research reiterating its Outperform rating on Nvidia (NVDA) and Advanced Micro Devices (AMD), raising the price target for Nvidia to $1,200. The research firm has also added AMD to its Wolfe Alpha List due to its robust AI product lineup. The article mentions that Nvidia is up 92% this year while AMD is up about 11%.', "The article mentions that 'Mag 7 stocks like Nvidia' are going away while 'Core &amp; Main' is seeing demand from top funds, which indicates a positive sentiment towards Core &amp; Main stock.", 'The article mentions that Broadcom has replaced Nvidia as the top stock pick for mutual funds, indicating a potential shift in market sentiment towards Broadcom.']</t>
+  </si>
+  <si>
+    <t>['The article mentions that the market rally is holding near record highs and that BYD and Nvidia are flashing buy signals. This indicates a positive sentiment towards the potential short-term stock value of Nvidia.', "The article discusses Nvidia's stock performance and its potential short-term value, mentioning that it was on track to set a record high before closing down 0.3%. The marketwide rally and upbeat analyst estimates are also mentioned as positive factors for the company. However, the overall sentiment is slightly negative due to the stock's decline.", "The article discusses Wolfe Research reiterating its Outperform rating on Nvidia (NVDA) and Advanced Micro Devices (AMD). The firm has raised its price target on Nvidia to $1,200. Additionally, it added AMD to its Wolfe Alpha List due to the chipmaker's robust AI product lineup.", "The article mentions that 'Mag 7 stocks like Nvidia go AWOL', which indicates a negative sentiment towards Nvidia's potential short-term stock value. However, it also states that Core &amp; Main sees demand from top funds and lifts CNM stock into another buy zone, suggesting a positive sentiment for Core &amp; Main. The overall sentiment of the article is mixed.", "The article mentions that Broadcom has replaced Nvidia as the top stock pick for mutual funds. This suggests a negative sentiment towards Nvidia's short-term stock value."]</t>
+  </si>
+  <si>
+    <t>['The article mentions that BYD and Nvidia have flashed buy signals, indicating potential short-term stock value growth for both companies.', "The article discusses Nvidia's stock performance and mentions optimism around the chip maker ahead of its earnings report. It also highlights a marketwide rally sparked by inflation data and upbeat analyst estimates. The closing price of $943.59 is mentioned, which shows a slight decrease from the previous day.", 'The article discusses Wolfe Research reiterating its Outperform rating on Nvidia (NVDA) and Advanced Micro Devices (AMD), raising the price target for NVDA to $1,200. The analysts are shifting their focus from NVDA to AMD due to its robust AI product lineup. They also mention that NVDA has already risen a lot this year, but anticipate a stronger second half.', "The article mentions that Nvidia's stock is going 'AWOL', which implies a negative sentiment towards its short-term value. However, it also states that Core &amp; Main sees demand from top funds and lifts CNM stock into another buy zone, indicating a positive sentiment for CNM stock.", 'The article mentions that Broadcom has taken the top spot from Nvidia in a list of new buys by the best mutual funds, indicating a potential shift in market sentiment towards Broadcom.']</t>
   </si>
   <si>
     <t>Comparison</t>
@@ -126,6 +174,30 @@
   </si>
   <si>
     <t>llama3_8b-instruct-q8_0 vs llama3_8b-instruct-sentiment_analysis-q8_0</t>
+  </si>
+  <si>
+    <t>mistral_7b-instruct-fp16 vs llama3_8b-instruct-fp16</t>
+  </si>
+  <si>
+    <t>mistral_7b-instruct-q4_K_M vs llama3_8b-instruct-q4_K_M</t>
+  </si>
+  <si>
+    <t>mistral_7b-instruct-q5_K_M vs llama3_8b-instruct-q5_K_M</t>
+  </si>
+  <si>
+    <t>mistral_7b-instruct-q8_0 vs llama3_8b-instruct-q8_0</t>
+  </si>
+  <si>
+    <t>dolphin-mistral_7b-v2.8-fp16 vs mistral_7b-instruct-fp16</t>
+  </si>
+  <si>
+    <t>dolphin-mistral_7b-v2.8-q4_K_M vs mistral_7b-instruct-q4_K_M</t>
+  </si>
+  <si>
+    <t>dolphin-mistral_7b-v2.8-q5_K_M vs mistral_7b-instruct-q5_K_M</t>
+  </si>
+  <si>
+    <t>dolphin-mistral_7b-v2.8-q8_0 vs mistral_7b-instruct-q8_0</t>
   </si>
 </sst>
 </file>
@@ -483,7 +555,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -520,25 +592,25 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C2">
-        <v>7.16375</v>
+        <v>7.936249999999999</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2">
-        <v>0.1733025146484375</v>
+        <v>0.3022168925382652</v>
       </c>
       <c r="F2">
-        <v>0.41421875</v>
+        <v>0.3540178571428571</v>
       </c>
       <c r="G2">
-        <v>0.9156249999999999</v>
+        <v>0.8760714285714286</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -546,25 +618,25 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C3">
-        <v>2.862096774193549</v>
+        <v>3.536964285714286</v>
       </c>
       <c r="D3">
-        <v>0.96875</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>0.1605755723204995</v>
+        <v>0.2975002232142857</v>
       </c>
       <c r="F3">
-        <v>0.3995161290322581</v>
+        <v>0.3612500000000001</v>
       </c>
       <c r="G3">
-        <v>0.884032258064516</v>
+        <v>0.8657142857142855</v>
       </c>
       <c r="H3" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -572,25 +644,25 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C4">
-        <v>3.58078125</v>
+        <v>4.281339285714286</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.1759743896484375</v>
+        <v>0.3596441884566327</v>
       </c>
       <c r="F4">
-        <v>0.42421875</v>
+        <v>0.3111607142857142</v>
       </c>
       <c r="G4">
-        <v>0.9239062499999999</v>
+        <v>0.8673214285714285</v>
       </c>
       <c r="H4" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -598,25 +670,25 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C5">
-        <v>4.12546875</v>
+        <v>4.936428571428571</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5">
-        <v>0.1682599365234375</v>
+        <v>0.3090963568239796</v>
       </c>
       <c r="F5">
-        <v>0.43203125</v>
+        <v>0.3709821428571428</v>
       </c>
       <c r="G5">
-        <v>0.90703125</v>
+        <v>0.8668750000000001</v>
       </c>
       <c r="H5" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -624,25 +696,25 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C6">
-        <v>6.39171875</v>
+        <v>7.951696428571428</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6">
-        <v>0.14982177734375</v>
+        <v>0.1405642139668368</v>
       </c>
       <c r="F6">
-        <v>0.5203125</v>
+        <v>0.5352678571428572</v>
       </c>
       <c r="G6">
-        <v>0.71484375</v>
+        <v>0.8370535714285715</v>
       </c>
       <c r="H6" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -650,25 +722,25 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C7">
-        <v>2.69671875</v>
+        <v>3.485357142857143</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7">
-        <v>0.14864990234375</v>
+        <v>0.1199992028061224</v>
       </c>
       <c r="F7">
-        <v>0.5203125</v>
+        <v>0.5008928571428571</v>
       </c>
       <c r="G7">
-        <v>0.7421875</v>
+        <v>0.8129464285714286</v>
       </c>
       <c r="H7" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -676,25 +748,25 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C8">
-        <v>3.33390625</v>
+        <v>4.157857142857143</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8">
-        <v>0.151318359375</v>
+        <v>0.1161766581632653</v>
       </c>
       <c r="F8">
-        <v>0.515625</v>
+        <v>0.5946428571428573</v>
       </c>
       <c r="G8">
-        <v>0.71953125</v>
+        <v>0.8562500000000001</v>
       </c>
       <c r="H8" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -702,25 +774,233 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C9">
-        <v>3.85</v>
+        <v>4.847232142857143</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9">
-        <v>0.1469525146484375</v>
+        <v>0.1253585379464286</v>
       </c>
       <c r="F9">
-        <v>0.52421875</v>
+        <v>0.534375</v>
       </c>
       <c r="G9">
-        <v>0.7625000000000001</v>
+        <v>0.8316964285714287</v>
       </c>
       <c r="H9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10">
+        <v>8.466794871794869</v>
+      </c>
+      <c r="D10">
+        <v>0.6964285714285714</v>
+      </c>
+      <c r="E10">
+        <v>0.1549352564102564</v>
+      </c>
+      <c r="F10">
+        <v>0.445</v>
+      </c>
+      <c r="G10">
+        <v>0.8711538461538462</v>
+      </c>
+      <c r="H10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11">
+        <v>4.06961038961039</v>
+      </c>
+      <c r="D11">
+        <v>0.6875</v>
+      </c>
+      <c r="E11">
+        <v>0.1384717490301906</v>
+      </c>
+      <c r="F11">
+        <v>0.4050649350649351</v>
+      </c>
+      <c r="G11">
+        <v>0.8809090909090909</v>
+      </c>
+      <c r="H11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12">
+        <v>4.577558139534883</v>
+      </c>
+      <c r="D12">
+        <v>0.7678571428571429</v>
+      </c>
+      <c r="E12">
+        <v>0.1130087614926988</v>
+      </c>
+      <c r="F12">
+        <v>0.4634883720930232</v>
+      </c>
+      <c r="G12">
+        <v>0.8589534883720931</v>
+      </c>
+      <c r="H12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
         <v>27</v>
+      </c>
+      <c r="C13">
+        <v>5.158674698795179</v>
+      </c>
+      <c r="D13">
+        <v>0.7410714285714286</v>
+      </c>
+      <c r="E13">
+        <v>0.1343515749745972</v>
+      </c>
+      <c r="F13">
+        <v>0.4304819277108434</v>
+      </c>
+      <c r="G13">
+        <v>0.8640963855421685</v>
+      </c>
+      <c r="H13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14">
+        <v>8.871696428571429</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>0.1946312420280612</v>
+      </c>
+      <c r="F14">
+        <v>0.4500892857142857</v>
+      </c>
+      <c r="G14">
+        <v>0.849732142857143</v>
+      </c>
+      <c r="H14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15">
+        <v>3.827410714285714</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>0.1002302853954082</v>
+      </c>
+      <c r="F15">
+        <v>0.6047321428571427</v>
+      </c>
+      <c r="G15">
+        <v>0.8673214285714287</v>
+      </c>
+      <c r="H15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16">
+        <v>5.008660714285715</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>0.2479749681122449</v>
+      </c>
+      <c r="F16">
+        <v>0.3651785714285714</v>
+      </c>
+      <c r="G16">
+        <v>0.8356250000000001</v>
+      </c>
+      <c r="H16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17">
+        <v>5.440625</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>0.225538137755102</v>
+      </c>
+      <c r="F17">
+        <v>0.3939285714285714</v>
+      </c>
+      <c r="G17">
+        <v>0.8447321428571429</v>
+      </c>
+      <c r="H17" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -730,7 +1010,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -738,87 +1018,223 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="B2">
-        <v>2.194575574429677</v>
+        <v>8.235499175387659</v>
       </c>
       <c r="C2">
-        <v>0.1409938364008628</v>
+        <v>0.004504679222968714</v>
       </c>
       <c r="D2">
-        <v>-1.481409995386043</v>
+        <v>-2.869755943523362</v>
       </c>
       <c r="E2">
-        <v>0.1409938364008619</v>
+        <v>0.004504679222968714</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="B3">
-        <v>2.926716822899192</v>
+        <v>5.18447217711255</v>
       </c>
       <c r="C3">
-        <v>0.08962511309420838</v>
+        <v>0.02374238548878441</v>
       </c>
       <c r="D3">
-        <v>-1.710764981784228</v>
+        <v>-2.276943604288992</v>
       </c>
       <c r="E3">
-        <v>0.08962511309420874</v>
+        <v>0.02374238548878502</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="B4">
-        <v>1.608258849398598</v>
+        <v>18.74696321895533</v>
       </c>
       <c r="C4">
-        <v>0.2070749694095276</v>
+        <v>2.259382479119569E-05</v>
       </c>
       <c r="D4">
-        <v>-1.268171458990699</v>
+        <v>-4.329776347452064</v>
       </c>
       <c r="E4">
-        <v>0.2070749694095269</v>
+        <v>2.259382479119567E-05</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="B5">
-        <v>1.698561439604457</v>
+        <v>6.820942969269606</v>
       </c>
       <c r="C5">
-        <v>0.1948527197776908</v>
+        <v>0.009624119620456333</v>
       </c>
       <c r="D5">
-        <v>-1.303288701556358</v>
+        <v>-2.611693505997518</v>
       </c>
       <c r="E5">
-        <v>0.1948527197776911</v>
+        <v>0.009624119620456258</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6">
+        <v>1.557765557869125</v>
+      </c>
+      <c r="C6">
+        <v>0.2135448947178483</v>
+      </c>
+      <c r="D6">
+        <v>1.248104786413836</v>
+      </c>
+      <c r="E6">
+        <v>0.2135448947178433</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7">
+        <v>0.3724384134843425</v>
+      </c>
+      <c r="C7">
+        <v>0.5424190541864609</v>
+      </c>
+      <c r="D7">
+        <v>0.6102773250616002</v>
+      </c>
+      <c r="E7">
+        <v>0.542419054186455</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8">
+        <v>4.424909691370972</v>
+      </c>
+      <c r="C8">
+        <v>0.03669367926510705</v>
+      </c>
+      <c r="D8">
+        <v>2.103546931107307</v>
+      </c>
+      <c r="E8">
+        <v>0.03669367926510721</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9">
+        <v>0.7116540907831288</v>
+      </c>
+      <c r="C9">
+        <v>0.3999395856552422</v>
+      </c>
+      <c r="D9">
+        <v>0.8435959286193425</v>
+      </c>
+      <c r="E9">
+        <v>0.3999395856552428</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10">
+        <v>0.006607548568187073</v>
+      </c>
+      <c r="C10">
+        <v>0.9353003203076695</v>
+      </c>
+      <c r="D10">
+        <v>0.08128682899576696</v>
+      </c>
+      <c r="E10">
+        <v>0.9353003203076233</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11">
+        <v>15.54152549465063</v>
+      </c>
+      <c r="C11">
+        <v>0.0001139781229917759</v>
+      </c>
+      <c r="D11">
+        <v>3.942274152649789</v>
+      </c>
+      <c r="E11">
+        <v>0.0001139781229917763</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12">
+        <v>2.457892915716455</v>
+      </c>
+      <c r="C12">
+        <v>0.1185485779506607</v>
+      </c>
+      <c r="D12">
+        <v>-1.56776685630117</v>
+      </c>
+      <c r="E12">
+        <v>0.1185485779506625</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13">
+        <v>0.337625571224316</v>
+      </c>
+      <c r="C13">
+        <v>0.5618809305853437</v>
+      </c>
+      <c r="D13">
+        <v>-0.581055566382698</v>
+      </c>
+      <c r="E13">
+        <v>0.5618809305853403</v>
       </c>
     </row>
   </sheetData>

--- a/reports/model_comparisons.xlsx
+++ b/reports/model_comparisons.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="44">
   <si>
     <t>Model Name</t>
   </si>
@@ -38,115 +38,64 @@
     <t>mean_confidence</t>
   </si>
   <si>
-    <t>reasoning_samples</t>
+    <t>llama3_8b-instruct-sentiment_analysis-q4_K_M</t>
+  </si>
+  <si>
+    <t>llama3_8b-instruct-sentiment_analysis-q5_K_M</t>
+  </si>
+  <si>
+    <t>llama3_8b-instruct-sentiment_analysis-q8_0</t>
+  </si>
+  <si>
+    <t>llama3_8b-instruct-sentiment_analysis-fp16</t>
+  </si>
+  <si>
+    <t>llama3_8b-instruct-q4_K_M</t>
+  </si>
+  <si>
+    <t>llama3_8b-instruct-q5_K_M</t>
+  </si>
+  <si>
+    <t>llama3_8b-instruct-q8_0</t>
   </si>
   <si>
     <t>llama3_8b-instruct-fp16</t>
   </si>
   <si>
-    <t>llama3_8b-instruct-q4_K_M</t>
-  </si>
-  <si>
-    <t>llama3_8b-instruct-q5_K_M</t>
-  </si>
-  <si>
-    <t>llama3_8b-instruct-q8_0</t>
-  </si>
-  <si>
-    <t>llama3_8b-instruct-sentiment_analysis-fp16</t>
-  </si>
-  <si>
-    <t>llama3_8b-instruct-sentiment_analysis-q4_K_M</t>
-  </si>
-  <si>
-    <t>llama3_8b-instruct-sentiment_analysis-q5_K_M</t>
-  </si>
-  <si>
-    <t>llama3_8b-instruct-sentiment_analysis-q8_0</t>
+    <t>mistral_7b-instruct-q4_K_M</t>
+  </si>
+  <si>
+    <t>mistral_7b-instruct-q5_K_M</t>
+  </si>
+  <si>
+    <t>mistral_7b-instruct-q8_0</t>
   </si>
   <si>
     <t>mistral_7b-instruct-fp16</t>
   </si>
   <si>
-    <t>mistral_7b-instruct-q4_K_M</t>
-  </si>
-  <si>
-    <t>mistral_7b-instruct-q5_K_M</t>
-  </si>
-  <si>
-    <t>mistral_7b-instruct-q8_0</t>
+    <t>dolphin-mistral_7b-v2.8-q4_K_M</t>
+  </si>
+  <si>
+    <t>dolphin-mistral_7b-v2.8-q5_K_M</t>
+  </si>
+  <si>
+    <t>dolphin-mistral_7b-v2.8-q8_0</t>
   </si>
   <si>
     <t>dolphin-mistral_7b-v2.8-fp16</t>
   </si>
   <si>
-    <t>dolphin-mistral_7b-v2.8-q4_K_M</t>
-  </si>
-  <si>
-    <t>dolphin-mistral_7b-v2.8-q5_K_M</t>
-  </si>
-  <si>
-    <t>dolphin-mistral_7b-v2.8-q8_0</t>
+    <t>q4_K_M</t>
+  </si>
+  <si>
+    <t>q5_K_M</t>
+  </si>
+  <si>
+    <t>q8_0</t>
   </si>
   <si>
     <t>fp16</t>
-  </si>
-  <si>
-    <t>q4_K_M</t>
-  </si>
-  <si>
-    <t>q5_K_M</t>
-  </si>
-  <si>
-    <t>q8_0</t>
-  </si>
-  <si>
-    <t>["The article mentions that Nvidia is flashing a buy signal, which indicates a positive sentiment towards the stock's potential short-term value.", "The article mentions that Nvidia's stock finished lower despite being on track to set a record high, indicating a slight decline in sentiment towards its short-term value. However, the optimism around the company's earnings report and upbeat analyst estimates suggests a positive outlook.", "The article discusses Wolfe Research's positive stance on Nvidia (NVDA) and Advanced Micro Devices (AMD), with a raised price target of $1,200 for Nvidia. The analysts are optimistic about AMD's robust AI product lineup and its potential for strong performance over the next 12 months.", "The article mentions that Nvidia's stock is going 'AWOL', which implies a negative trend. However, the overall tone of the article is focused on Core &amp; Main (CNM) stock being in a 'buy zone' due to demand from top funds. This suggests that the author is more optimistic about CNM than Nvidia.", "The article mentions that Broadcom has taken over the top spot from Nvidia in a list of new buys by the best mutual funds, implying a negative sentiment towards Nvidia's stock value."]</t>
-  </si>
-  <si>
-    <t>['The article mentions that Nvidia is flashing a buy signal, which indicates a positive sentiment towards its potential short-term stock value.', "The article discusses Nvidia's stock price finishing lower despite being on track to set a record high, indicating a slight negative sentiment towards its short-term value. The optimism around the chip maker ahead of its earnings report is mentioned as a positive factor, but it does not outweigh the negative impact of the stock closing down.", "The article discusses Wolfe Research's positive outlook on Nvidia (NVDA) and Advanced Micro Devices (AMD), with a raised price target for NVDA to $1,200. The analysts' shift in priority towards AMD is seen as a tactical move, considering its robust AI product lineup and potential for strong performance over the next 12 months.", "The article mentions that Nvidia's stock (Mag 7) is going 'AWOL', which implies a negative trend. However, the same sentence also highlights Core &amp; Main's (CNM) stock being lifted into a buy zone due to demand from top funds, indicating a positive sentiment towards CNM. The overall tone of the article seems to be more focused on the positive performance of CNM rather than Nvidia.", "The article mentions that Broadcom has taken over the top spot from Nvidia in a list of new buys by the best mutual funds, implying a negative sentiment towards Nvidia's stock value."]</t>
-  </si>
-  <si>
-    <t>["The article mentions that Nvidia joined other stocks in flashing buy signals, indicating a positive trend for the company's stock value.", "The article mentions that Nvidia's stock finished lower despite being on track to set a record high, indicating some caution or uncertainty around the company's earnings report. However, it also notes that optimism is rising and analyst estimates are upbeat, which suggests a positive outlook.", "The article discusses Wolfe Research reiterating its Outperform rating on Nvidia and raising its price target to $1,200, citing the company's robust AI product lineup. The analysts also added AMD to their Wolfe Alpha List, which is a group of stocks expected to show big mean reversion over a 12-month time frame. While Nvidia has already risen significantly this year, the analysts expect a stronger second half.", "The article mentions that Nvidia's stock is going 'AWOL', which implies a negative trend. However, the overall tone of the article is focused on Core &amp; Main's (CNM) stock performance, which is described as being lifted into a buy zone due to demand from top funds.", "The article mentions that Broadcom has taken over the top spot from Nvidia, implying a negative sentiment towards Nvidia's stock value."]</t>
-  </si>
-  <si>
-    <t>['The article mentions that Nvidia joined other companies like Walmart and Tesla rival BYD in flashing buy signals, indicating a positive sentiment towards the stock value of Nvidia.', "The article mentions that Nvidia's stock finished lower despite being on track to set a record high, indicating some caution or uncertainty in the market. However, it also highlights optimism around the chip maker ahead of its earnings report and notes that shares were lifted by upbeat analyst estimates.", "The article highlights Wolfe Research's positive stance on Nvidia, reiterating its Outperform rating and raising its price target to $1,200. The analysts also added Advanced Micro Devices (AMD) to the Wolfe Alpha List, citing its robust AI product lineup. While the analyst acknowledges that Nvidia has already risen significantly this year, they expect a stronger second half.", "The article mentions that Nvidia's stock is going 'AWOL', which implies a negative trend. However, the overall tone of the article is focused on Core &amp; Main (CNM) stock and its demand from top funds, which is presented as positive. The mention of Nvidia is used to compare it unfavorably with CNM, implying that CNM's performance is better.", "The article mentions Broadcom taking over the top spot from Nvidia, implying a negative sentiment towards Nvidia's stock value."]</t>
-  </si>
-  <si>
-    <t>["The article reports that the market is holding near record highs, with several companies flashing buy signals, including Walmart, Tesla rival BYD, and Nvidia. This suggests a positive sentiment towards these companies' stock values.", "The article reports that Nvidia's stock finished lower on Thursday, despite being on track to set a record high due to optimism around the chip maker ahead of its earnings report next week. The marketwide rally sparked by April's inflation data and upbeat analyst estimates lifted Nvidia shares initially, but ultimately led to a decline in the stock price.", "The article reports that Wolfe Research has reiterated its 'Outperform' rating on Nvidia and Advanced Micro Devices, with a price target increase for Nvidia to $1,200. Additionally, AMD was added to the Wolfe Alpha List due to its robust AI product lineup. The analysts expect a stronger second half from Nvidia, which suggests continued growth potential.", "The article suggests that despite the volatility in Mag 7 stocks like Nvidia, Core &amp; Main is experiencing increased demand from top funds, leading to a positive impact on CNM stock and placing it in a 'buy zone'. This implies a strong sentiment towards CNM stock.", "The article suggests a significant shift in market sentiment towards Broadcom, as it has surpassed Nvidia to become the top buy among the best mutual funds. This implies strong investor confidence and potential future growth for Broadcom's stock value."]</t>
-  </si>
-  <si>
-    <t>["The article reports that the market is holding near record highs, with several companies including Walmart, Tesla's rival BYD, and Nvidia flashing 'buy' signals, indicating a positive sentiment towards these stocks.", "The article reports that Nvidia's stock finished lower on Thursday, despite being on track to set a record high due to rising optimism around the chip maker ahead of its earnings report next week. The marketwide rally sparked by April's inflation data and upbeat analyst estimates lifted Nvidia shares, but the stock ultimately closed down 0.3%.", "The article reports that Wolfe Research has reiterated its Outperform rating on Nvidia and Advanced Micro Devices, with a price target increase for Nvidia to $1,200. Additionally, AMD was added to the Wolfe Alpha List due to its robust AI product lineup. The analysts' positive sentiment towards both companies suggests an optimistic outlook for their future performance.", "The article suggests that despite other stocks in the same category experiencing volatility (AWOL), Core &amp; Main's stock (CNM) is seeing increased demand from top funds, leading to a further 'buy' zone.", "The article suggests that Broadcom has surpassed Nvidia as the top stock in a list of new buys by the best mutual funds, implying a positive sentiment towards Broadcom's future stock value."]</t>
-  </si>
-  <si>
-    <t>["The article reports that the market is holding near record highs, with several companies, including Walmart, Tesla rival BYD, and Nvidia, flashing buy signals. This suggests a positive sentiment towards these companies' stock values.", "The article reports that Nvidia's stock finished lower despite being on track to set a record high, due to optimism around the chip maker ahead of its earnings report. The marketwide rally and upbeat analyst estimates contributed to this optimism.", "The article reports that Wolfe Research has reiterated its 'Outperform' rating on Nvidia and Advanced Micro Devices (AMD), with a price target increase for Nvidia to $1,200. Additionally, AMD was added to the Wolfe Alpha List due to its robust AI product lineup. The analysts expect a stronger second half from Nvidia, indicating confidence in the company's future performance.", 'The article suggests that despite other Mag 7 stocks experiencing a decline in value (like Nvidia), Core &amp; Main is seeing increased demand from top funds, leading to an increase in the value of CNM stock.', "The article suggests that Broadcom has surpassed Nvidia as the top stock in a list of new buys by the best mutual funds, indicating a positive sentiment towards Broadcom's future stock value."]</t>
-  </si>
-  <si>
-    <t>["The article reports that the market is holding near record highs, with several companies flashing buy signals, including Walmart and Tesla rival BYD, as well as Nvidia. This suggests a positive sentiment towards these companies' stock values.", "The article reports that Nvidia's stock finished lower on Thursday, despite being on track to set a record high due to rising optimism around the chip maker ahead of its earnings report. The marketwide rally sparked by April's inflation data and upbeat analyst estimates lifted Nvidia shares, but ultimately led to a decline in the stock price.", 'The article reports that Wolfe Research has reiterated its Outperform rating on Nvidia and Advanced Micro Devices, with a price target increase for Nvidia to $1,200. Additionally, AMD was added to the Wolfe Alpha List due to its robust AI product lineup. This suggests that both companies are expected to perform well in the future, which would positively impact their stock values.', "The article suggests that while other stocks in the Mag 7 group are experiencing a decline (AWOL), Core &amp; Main is seeing increased demand from top funds, leading to an increase in CNM stock value and entering another 'buy zone'. This implies a positive sentiment towards CNM stock.", "The article suggests a significant shift in investor sentiment towards Broadcom, as it has surpassed Nvidia to become the top buy among leading mutual funds. This change in market perception could lead to increased investor confidence and potentially drive up Broadcom's stock value."]</t>
-  </si>
-  <si>
-    <t>["The sentiment analysis was performed by analyzing the text of the article for positive and negative words and phrases. The presence of positive words such as 'market rally', 'record highs', 'buy signals', and 'joining Nvidia' indicates a positive sentiment towards the potential short-term stock value of Nvidia.", "The sentiment analysis was performed by analyzing the text of the article for positive and negative words and phrases related to Nvidia's potential short-term stock value. The sentiment score was calculated based on the ratio of positive to negative words and phrases.", "The sentiment analysis was performed using natural language processing techniques to identify positive and negative words in the article. The presence of the word 'usurping' indicates a negative sentiment towards Nvidia's potential short-term stock value.", 'The sentiment analysis was performed by analyzing the text of the article and identifying positive and negative words and phrases. The sentiment value was then calculated based on a weighted average of these values.', "The sentiment analysis was performed by analyzing the text of the article for positive and negative words and phrases related to Nvidia's potential short-term stock value. The sentiment score was then calculated based on the overall sentiment of the article."]</t>
-  </si>
-  <si>
-    <t>["The sentiment analysis was performed by analyzing the text of the article for positive and negative words and phrases. The presence of positive words such as 'market rally', 'record highs', 'buy signals', and 'Nvidia' indicates a positive sentiment towards the potential short-term stock value of Nvidia.", 'The sentiment analysis was performed using natural language processing techniques to identify positive and negative words in the article. The sentiment value is based on the ratio of positive to negative words.', "The sentiment analysis is based on the presence of positive keywords such as 'lifting' and 'yet another buy zone', and the absence of negative keywords such as 'AWOL'. The article also mentions that Core &amp; Main sees demand from top funds, which further supports a positive sentiment.", "The sentiment analysis was performed using a rule-based approach that looked for positive and negative keywords in the article. The presence of 'usurping' and 'best' were considered as positive indicators, while the absence of 'Nvidia' was considered as a negative indicator.", 'The sentiment analysis was performed using natural language processing techniques and machine learning algorithms to identify positive, negative, and neutral words and phrases in the article. The sentiment value is based on the overall tone of the text.']</t>
-  </si>
-  <si>
-    <t>["The sentiment analysis was performed by analyzing the text of the article for positive and negative words and phrases. The presence of positive keywords such as 'market rally', 'record highs', 'buy signals', and 'joining Nvidia' indicates a positive sentiment towards the potential short-term stock value of Nvidia.", 'The sentiment analysis was performed on the provided article about the potential short-term stock value of Nvidia. The reasoning used to determine the sentiment value is based on the presence of positive and negative keywords in the text, as well as the overall tone and language used.', "The sentiment analysis was performed using a rule-based approach that takes into account the presence of positive and negative keywords in the article. The article mentions Broadcom's usurpation of Nvidia's top spot on a list of new buys by mutual funds, which can be seen as a positive development for Broadcom and potentially negative for Nvidia. Therefore, the sentiment value was calculated based on the presence of positive keywords such as 'usurpation' and 'top spot', and the absence of negative keywords such as 'Nvidia'.", "The sentiment analysis is based on the presence of positive keywords such as 'anticipated', 'cutting-edge', 'powering', 'revolution', 'strong buy', and 'explode'. The article also mentions Nvidia's market cap and stock price, which are both positive indicators. Additionally, the article highlights Nvidia's latest chip and its ability to run large language models at a lower cost, which is seen as a major bullish catalyst. However, there are also some negative indicators such as Chinese regulators urging local tech firms to buy fewer Nvidia chips, which could impact the company's outlook. Based on these factors, the sentiment analysis classifies the article as having a positive sentiment.", "The sentiment analysis was performed by analyzing the text of the article for positive and negative words and phrases related to Nvidia's potential short-term stock value. The sentiment score was then calculated based on the overall sentiment of the article."]</t>
-  </si>
-  <si>
-    <t>["The sentiment analysis was performed by analyzing the text of the article for positive and negative words and phrases. The presence of positive keywords such as 'market rally', 'record highs', 'buy signals', and 'joining Nvidia' indicates a positive sentiment towards the potential short-term stock value of Nvidia.", 'The sentiment analysis was performed using natural language processing techniques to identify positive and negative words in the article. The sentiment value is based on the ratio of positive to negative words.', "The sentiment analysis was performed by analyzing the text of the article for positive and negative words and phrases related to Nvidia's potential short-term stock value. The sentiment was determined based on the overall tone and language used in the article.", "The sentiment analysis is based on the presence of positive and negative words in the article, as well as the overall tone. The reasoning used to determine the sentiment value is as follows: Positive words such as 'anticipated', 'cutting-edge', 'powering', 'explode', 'major bullish catalyst' are assigned a positive score, while negative words such as 'impact' and 'regulators' are assigned a negative score. The overall sentiment value is calculated by summing up the scores of all the words in the article.", 'The sentiment analysis was performed by analyzing the text of the article for positive and negative words, phrases, and sentiment indicators. The sentiment value was then calculated based on the weighted average of these factors.']</t>
-  </si>
-  <si>
-    <t>['The article mentions that the market rally is holding near record highs and that BYD and Nvidia have flashed buy signals. This indicates a positive sentiment towards the potential short-term stock value of Nvidia.', "The article discusses Nvidia's stock performance, mentioning that it finished lower on Thursday despite being on track to set a record high due to optimism around the company ahead of its earnings report next week. The marketwide rally and upbeat analyst estimates are also mentioned as contributing factors.", "The article discusses Wolfe Research's Outperform rating on Nvidia (NVDA) and Advanced Micro Devices (AMD), raising its price target for Nvidia to $1,200, and adding AMD to the Wolfe Alpha List. The analysts mention that while NVIDIA has risen a lot this year, they anticipate a much stronger second half.", "The article mentions that Nvidia's stock value is going 'AWOL', which implies a negative sentiment towards its short-term potential. However, it also states that Core &amp; Main sees demand from top funds and lifts CNM stock into another buy zone. This suggests a positive sentiment for Core &amp; Main's stock. Therefore, the overall sentiment of the article leans slightly more towards negative due to the focus on Nvidia's stock.", "The article mentions that Broadcom has overtaken Nvidia in a list of new buys by the best mutual funds, which suggests a negative sentiment towards Nvidia's short-term stock value."]</t>
-  </si>
-  <si>
-    <t>["The article mentions that the market rally is holding near record highs and that BYD and Nvidia have flashed buy signals. This indicates a positive sentiment towards Nvidia's potential short-term stock value.", "The article discusses Nvidia's stock performance, market rally, and optimism surrounding its earnings report. The stock closed down 0.3% at $943.59, indicating a slightly negative sentiment.", 'The article discusses Wolfe Research reiterating its Outperform rating on Nvidia (NVDA) and Advanced Micro Devices (AMD), raising the price target for Nvidia to $1,200. The research firm has also added AMD to its Wolfe Alpha List due to its robust AI product lineup. The article mentions that Nvidia is up 92% this year while AMD is up about 11%.', "The article mentions that 'Mag 7 stocks like Nvidia' are going away while 'Core &amp; Main' is seeing demand from top funds, which indicates a positive sentiment towards Core &amp; Main stock.", 'The article mentions that Broadcom has replaced Nvidia as the top stock pick for mutual funds, indicating a potential shift in market sentiment towards Broadcom.']</t>
-  </si>
-  <si>
-    <t>['The article mentions that the market rally is holding near record highs and that BYD and Nvidia are flashing buy signals. This indicates a positive sentiment towards the potential short-term stock value of Nvidia.', "The article discusses Nvidia's stock performance and its potential short-term value, mentioning that it was on track to set a record high before closing down 0.3%. The marketwide rally and upbeat analyst estimates are also mentioned as positive factors for the company. However, the overall sentiment is slightly negative due to the stock's decline.", "The article discusses Wolfe Research reiterating its Outperform rating on Nvidia (NVDA) and Advanced Micro Devices (AMD). The firm has raised its price target on Nvidia to $1,200. Additionally, it added AMD to its Wolfe Alpha List due to the chipmaker's robust AI product lineup.", "The article mentions that 'Mag 7 stocks like Nvidia go AWOL', which indicates a negative sentiment towards Nvidia's potential short-term stock value. However, it also states that Core &amp; Main sees demand from top funds and lifts CNM stock into another buy zone, suggesting a positive sentiment for Core &amp; Main. The overall sentiment of the article is mixed.", "The article mentions that Broadcom has replaced Nvidia as the top stock pick for mutual funds. This suggests a negative sentiment towards Nvidia's short-term stock value."]</t>
-  </si>
-  <si>
-    <t>['The article mentions that BYD and Nvidia have flashed buy signals, indicating potential short-term stock value growth for both companies.', "The article discusses Nvidia's stock performance and mentions optimism around the chip maker ahead of its earnings report. It also highlights a marketwide rally sparked by inflation data and upbeat analyst estimates. The closing price of $943.59 is mentioned, which shows a slight decrease from the previous day.", 'The article discusses Wolfe Research reiterating its Outperform rating on Nvidia (NVDA) and Advanced Micro Devices (AMD), raising the price target for NVDA to $1,200. The analysts are shifting their focus from NVDA to AMD due to its robust AI product lineup. They also mention that NVDA has already risen a lot this year, but anticipate a stronger second half.', "The article mentions that Nvidia's stock is going 'AWOL', which implies a negative sentiment towards its short-term value. However, it also states that Core &amp; Main sees demand from top funds and lifts CNM stock into another buy zone, indicating a positive sentiment for CNM stock.", 'The article mentions that Broadcom has taken the top spot from Nvidia in a list of new buys by the best mutual funds, indicating a potential shift in market sentiment towards Broadcom.']</t>
   </si>
   <si>
     <t>Comparison</t>
@@ -555,13 +504,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -583,424 +532,373 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2">
+        <v>3.485</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>0.12</v>
+      </c>
+      <c r="F2">
+        <v>0.501</v>
+      </c>
+      <c r="G2">
+        <v>0.8129999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>24</v>
       </c>
-      <c r="C2">
-        <v>7.936249999999999</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>0.3022168925382652</v>
-      </c>
-      <c r="F2">
-        <v>0.3540178571428571</v>
-      </c>
-      <c r="G2">
-        <v>0.8760714285714286</v>
-      </c>
-      <c r="H2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
+      <c r="C3">
+        <v>4.158</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>0.116</v>
+      </c>
+      <c r="F3">
+        <v>0.595</v>
+      </c>
+      <c r="G3">
+        <v>0.856</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>25</v>
       </c>
-      <c r="C3">
-        <v>3.536964285714286</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>0.2975002232142857</v>
-      </c>
-      <c r="F3">
-        <v>0.3612500000000001</v>
-      </c>
-      <c r="G3">
-        <v>0.8657142857142855</v>
-      </c>
-      <c r="H3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
+      <c r="C4">
+        <v>4.847</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>0.125</v>
+      </c>
+      <c r="F4">
+        <v>0.534</v>
+      </c>
+      <c r="G4">
+        <v>0.832</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>26</v>
       </c>
-      <c r="C4">
-        <v>4.281339285714286</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>0.3596441884566327</v>
-      </c>
-      <c r="F4">
-        <v>0.3111607142857142</v>
-      </c>
-      <c r="G4">
-        <v>0.8673214285714285</v>
-      </c>
-      <c r="H4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
+      <c r="C5">
+        <v>7.952</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>0.141</v>
+      </c>
+      <c r="F5">
+        <v>0.535</v>
+      </c>
+      <c r="G5">
+        <v>0.837</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5">
-        <v>4.936428571428571</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>0.3090963568239796</v>
-      </c>
-      <c r="F5">
-        <v>0.3709821428571428</v>
-      </c>
-      <c r="G5">
-        <v>0.8668750000000001</v>
-      </c>
-      <c r="H5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6">
+        <v>3.537</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>0.298</v>
+      </c>
+      <c r="F6">
+        <v>0.361</v>
+      </c>
+      <c r="G6">
+        <v>0.866</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>24</v>
       </c>
-      <c r="C6">
-        <v>7.951696428571428</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>0.1405642139668368</v>
-      </c>
-      <c r="F6">
-        <v>0.5352678571428572</v>
-      </c>
-      <c r="G6">
-        <v>0.8370535714285715</v>
-      </c>
-      <c r="H6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
+      <c r="C7">
+        <v>4.281</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>0.36</v>
+      </c>
+      <c r="F7">
+        <v>0.311</v>
+      </c>
+      <c r="G7">
+        <v>0.867</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>25</v>
       </c>
-      <c r="C7">
-        <v>3.485357142857143</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>0.1199992028061224</v>
-      </c>
-      <c r="F7">
-        <v>0.5008928571428571</v>
-      </c>
-      <c r="G7">
-        <v>0.8129464285714286</v>
-      </c>
-      <c r="H7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
+      <c r="C8">
+        <v>4.936</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>0.309</v>
+      </c>
+      <c r="F8">
+        <v>0.371</v>
+      </c>
+      <c r="G8">
+        <v>0.867</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>26</v>
       </c>
-      <c r="C8">
-        <v>4.157857142857143</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>0.1161766581632653</v>
-      </c>
-      <c r="F8">
-        <v>0.5946428571428573</v>
-      </c>
-      <c r="G8">
-        <v>0.8562500000000001</v>
-      </c>
-      <c r="H8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" t="s">
+      <c r="C9">
+        <v>7.936</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>0.302</v>
+      </c>
+      <c r="F9">
+        <v>0.354</v>
+      </c>
+      <c r="G9">
+        <v>0.876</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="B9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9">
-        <v>4.847232142857143</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>0.1253585379464286</v>
-      </c>
-      <c r="F9">
-        <v>0.534375</v>
-      </c>
-      <c r="G9">
-        <v>0.8316964285714287</v>
-      </c>
-      <c r="H9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10">
+        <v>4.07</v>
+      </c>
+      <c r="D10">
+        <v>0.6879999999999999</v>
+      </c>
+      <c r="E10">
+        <v>0.138</v>
+      </c>
+      <c r="F10">
+        <v>0.405</v>
+      </c>
+      <c r="G10">
+        <v>0.881</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
         <v>16</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>24</v>
       </c>
-      <c r="C10">
-        <v>8.466794871794869</v>
-      </c>
-      <c r="D10">
-        <v>0.6964285714285714</v>
-      </c>
-      <c r="E10">
-        <v>0.1549352564102564</v>
-      </c>
-      <c r="F10">
+      <c r="C11">
+        <v>4.578</v>
+      </c>
+      <c r="D11">
+        <v>0.768</v>
+      </c>
+      <c r="E11">
+        <v>0.113</v>
+      </c>
+      <c r="F11">
+        <v>0.463</v>
+      </c>
+      <c r="G11">
+        <v>0.859</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12">
+        <v>5.159</v>
+      </c>
+      <c r="D12">
+        <v>0.741</v>
+      </c>
+      <c r="E12">
+        <v>0.134</v>
+      </c>
+      <c r="F12">
+        <v>0.43</v>
+      </c>
+      <c r="G12">
+        <v>0.864</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13">
+        <v>8.467000000000001</v>
+      </c>
+      <c r="D13">
+        <v>0.696</v>
+      </c>
+      <c r="E13">
+        <v>0.155</v>
+      </c>
+      <c r="F13">
         <v>0.445</v>
       </c>
-      <c r="G10">
-        <v>0.8711538461538462</v>
-      </c>
-      <c r="H10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="G13">
+        <v>0.871</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14">
+        <v>3.827</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>0.1</v>
+      </c>
+      <c r="F14">
+        <v>0.605</v>
+      </c>
+      <c r="G14">
+        <v>0.867</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15">
+        <v>5.009</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>0.248</v>
+      </c>
+      <c r="F15">
+        <v>0.365</v>
+      </c>
+      <c r="G15">
+        <v>0.836</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
         <v>25</v>
       </c>
-      <c r="C11">
-        <v>4.06961038961039</v>
-      </c>
-      <c r="D11">
-        <v>0.6875</v>
-      </c>
-      <c r="E11">
-        <v>0.1384717490301906</v>
-      </c>
-      <c r="F11">
-        <v>0.4050649350649351</v>
-      </c>
-      <c r="G11">
-        <v>0.8809090909090909</v>
-      </c>
-      <c r="H11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="C16">
+        <v>5.441</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>0.226</v>
+      </c>
+      <c r="F16">
+        <v>0.394</v>
+      </c>
+      <c r="G16">
+        <v>0.845</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
         <v>26</v>
       </c>
-      <c r="C12">
-        <v>4.577558139534883</v>
-      </c>
-      <c r="D12">
-        <v>0.7678571428571429</v>
-      </c>
-      <c r="E12">
-        <v>0.1130087614926988</v>
-      </c>
-      <c r="F12">
-        <v>0.4634883720930232</v>
-      </c>
-      <c r="G12">
-        <v>0.8589534883720931</v>
-      </c>
-      <c r="H12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13">
-        <v>5.158674698795179</v>
-      </c>
-      <c r="D13">
-        <v>0.7410714285714286</v>
-      </c>
-      <c r="E13">
-        <v>0.1343515749745972</v>
-      </c>
-      <c r="F13">
-        <v>0.4304819277108434</v>
-      </c>
-      <c r="G13">
-        <v>0.8640963855421685</v>
-      </c>
-      <c r="H13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14">
-        <v>8.871696428571429</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>0.1946312420280612</v>
-      </c>
-      <c r="F14">
-        <v>0.4500892857142857</v>
-      </c>
-      <c r="G14">
-        <v>0.849732142857143</v>
-      </c>
-      <c r="H14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15">
-        <v>3.827410714285714</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <v>0.1002302853954082</v>
-      </c>
-      <c r="F15">
-        <v>0.6047321428571427</v>
-      </c>
-      <c r="G15">
-        <v>0.8673214285714287</v>
-      </c>
-      <c r="H15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16">
-        <v>5.008660714285715</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <v>0.2479749681122449</v>
-      </c>
-      <c r="F16">
-        <v>0.3651785714285714</v>
-      </c>
-      <c r="G16">
-        <v>0.8356250000000001</v>
-      </c>
-      <c r="H16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>27</v>
-      </c>
       <c r="C17">
-        <v>5.440625</v>
+        <v>8.872</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17">
-        <v>0.225538137755102</v>
+        <v>0.195</v>
       </c>
       <c r="F17">
-        <v>0.3939285714285714</v>
+        <v>0.45</v>
       </c>
       <c r="G17">
-        <v>0.8447321428571429</v>
-      </c>
-      <c r="H17" t="s">
-        <v>43</v>
+        <v>0.85</v>
       </c>
     </row>
   </sheetData>
@@ -1018,223 +916,223 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="B2">
-        <v>8.235499175387659</v>
+        <v>8.234999999999999</v>
       </c>
       <c r="C2">
-        <v>0.004504679222968714</v>
+        <v>0.005</v>
       </c>
       <c r="D2">
-        <v>-2.869755943523362</v>
+        <v>-2.87</v>
       </c>
       <c r="E2">
-        <v>0.004504679222968714</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="B3">
-        <v>5.18447217711255</v>
+        <v>5.184</v>
       </c>
       <c r="C3">
-        <v>0.02374238548878441</v>
+        <v>0.024</v>
       </c>
       <c r="D3">
-        <v>-2.276943604288992</v>
+        <v>-2.277</v>
       </c>
       <c r="E3">
-        <v>0.02374238548878502</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="B4">
-        <v>18.74696321895533</v>
+        <v>18.747</v>
       </c>
       <c r="C4">
-        <v>2.259382479119569E-05</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>-4.329776347452064</v>
+        <v>-4.33</v>
       </c>
       <c r="E4">
-        <v>2.259382479119567E-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="B5">
-        <v>6.820942969269606</v>
+        <v>6.821</v>
       </c>
       <c r="C5">
-        <v>0.009624119620456333</v>
+        <v>0.01</v>
       </c>
       <c r="D5">
-        <v>-2.611693505997518</v>
+        <v>-2.612</v>
       </c>
       <c r="E5">
-        <v>0.009624119620456258</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="B6">
-        <v>1.557765557869125</v>
+        <v>1.558</v>
       </c>
       <c r="C6">
-        <v>0.2135448947178483</v>
+        <v>0.214</v>
       </c>
       <c r="D6">
-        <v>1.248104786413836</v>
+        <v>1.248</v>
       </c>
       <c r="E6">
-        <v>0.2135448947178433</v>
+        <v>0.214</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="B7">
-        <v>0.3724384134843425</v>
+        <v>0.372</v>
       </c>
       <c r="C7">
-        <v>0.5424190541864609</v>
+        <v>0.542</v>
       </c>
       <c r="D7">
-        <v>0.6102773250616002</v>
+        <v>0.61</v>
       </c>
       <c r="E7">
-        <v>0.542419054186455</v>
+        <v>0.542</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="B8">
-        <v>4.424909691370972</v>
+        <v>4.425</v>
       </c>
       <c r="C8">
-        <v>0.03669367926510705</v>
+        <v>0.037</v>
       </c>
       <c r="D8">
-        <v>2.103546931107307</v>
+        <v>2.104</v>
       </c>
       <c r="E8">
-        <v>0.03669367926510721</v>
+        <v>0.037</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="B9">
-        <v>0.7116540907831288</v>
+        <v>0.712</v>
       </c>
       <c r="C9">
-        <v>0.3999395856552422</v>
+        <v>0.4</v>
       </c>
       <c r="D9">
-        <v>0.8435959286193425</v>
+        <v>0.844</v>
       </c>
       <c r="E9">
-        <v>0.3999395856552428</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="B10">
-        <v>0.006607548568187073</v>
+        <v>0.007</v>
       </c>
       <c r="C10">
-        <v>0.9353003203076695</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="D10">
-        <v>0.08128682899576696</v>
+        <v>0.081</v>
       </c>
       <c r="E10">
-        <v>0.9353003203076233</v>
+        <v>0.9350000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="B11">
-        <v>15.54152549465063</v>
+        <v>15.542</v>
       </c>
       <c r="C11">
-        <v>0.0001139781229917759</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>3.942274152649789</v>
+        <v>3.942</v>
       </c>
       <c r="E11">
-        <v>0.0001139781229917763</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="B12">
-        <v>2.457892915716455</v>
+        <v>2.458</v>
       </c>
       <c r="C12">
-        <v>0.1185485779506607</v>
+        <v>0.119</v>
       </c>
       <c r="D12">
-        <v>-1.56776685630117</v>
+        <v>-1.568</v>
       </c>
       <c r="E12">
-        <v>0.1185485779506625</v>
+        <v>0.119</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="B13">
-        <v>0.337625571224316</v>
+        <v>0.338</v>
       </c>
       <c r="C13">
-        <v>0.5618809305853437</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="D13">
-        <v>-0.581055566382698</v>
+        <v>-0.581</v>
       </c>
       <c r="E13">
-        <v>0.5618809305853403</v>
+        <v>0.5620000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/reports/model_comparisons.xlsx
+++ b/reports/model_comparisons.xlsx
@@ -23,19 +23,19 @@
     <t>Quantization Level</t>
   </si>
   <si>
-    <t>rate</t>
-  </si>
-  <si>
-    <t>valid_json_rate</t>
-  </si>
-  <si>
-    <t>variance</t>
-  </si>
-  <si>
-    <t>mean_sentiment</t>
-  </si>
-  <si>
-    <t>mean_confidence</t>
+    <t>Inference Rate (s)</t>
+  </si>
+  <si>
+    <t>Valid JSON Rate</t>
+  </si>
+  <si>
+    <t>Sentiment Variance</t>
+  </si>
+  <si>
+    <t>Mean Sentiment</t>
+  </si>
+  <si>
+    <t>Mean Confidence</t>
   </si>
   <si>
     <t>llama3_8b-instruct-sentiment_analysis-q4_K_M</t>
@@ -101,16 +101,16 @@
     <t>Comparison</t>
   </si>
   <si>
-    <t>f_statistic</t>
-  </si>
-  <si>
-    <t>f_p_value</t>
-  </si>
-  <si>
-    <t>t_statistic</t>
-  </si>
-  <si>
-    <t>t_p_value</t>
+    <t>F-Statistic</t>
+  </si>
+  <si>
+    <t>F-Test P-Value</t>
+  </si>
+  <si>
+    <t>T-Statistic</t>
+  </si>
+  <si>
+    <t>T-Test P-Value</t>
   </si>
   <si>
     <t>llama3_8b-instruct-fp16 vs llama3_8b-instruct-sentiment_analysis-fp16</t>

--- a/reports/model_comparisons.xlsx
+++ b/reports/model_comparisons.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>Model Name</t>
   </si>
@@ -38,66 +38,27 @@
     <t>Mean Confidence</t>
   </si>
   <si>
-    <t>llama3_8b-instruct-sentiment_analysis-q4_K_M</t>
-  </si>
-  <si>
-    <t>llama3_8b-instruct-sentiment_analysis-q5_K_M</t>
-  </si>
-  <si>
-    <t>llama3_8b-instruct-sentiment_analysis-q8_0</t>
-  </si>
-  <si>
     <t>llama3_8b-instruct-sentiment_analysis-fp16</t>
   </si>
   <si>
-    <t>llama3_8b-instruct-q4_K_M</t>
-  </si>
-  <si>
-    <t>llama3_8b-instruct-q5_K_M</t>
-  </si>
-  <si>
-    <t>llama3_8b-instruct-q8_0</t>
-  </si>
-  <si>
     <t>llama3_8b-instruct-fp16</t>
   </si>
   <si>
-    <t>mistral_7b-instruct-q4_K_M</t>
-  </si>
-  <si>
-    <t>mistral_7b-instruct-q5_K_M</t>
-  </si>
-  <si>
-    <t>mistral_7b-instruct-q8_0</t>
+    <t>mistral-7b-sentiment-may-18-2024-1epoch-unsloth.F16</t>
   </si>
   <si>
     <t>mistral_7b-instruct-fp16</t>
   </si>
   <si>
-    <t>dolphin-mistral_7b-v2.8-q4_K_M</t>
-  </si>
-  <si>
-    <t>dolphin-mistral_7b-v2.8-q5_K_M</t>
-  </si>
-  <si>
-    <t>dolphin-mistral_7b-v2.8-q8_0</t>
-  </si>
-  <si>
     <t>dolphin-mistral_7b-v2.8-fp16</t>
   </si>
   <si>
-    <t>q4_K_M</t>
-  </si>
-  <si>
-    <t>q5_K_M</t>
-  </si>
-  <si>
-    <t>q8_0</t>
-  </si>
-  <si>
     <t>fp16</t>
   </si>
   <si>
+    <t>unsloth.F16</t>
+  </si>
+  <si>
     <t>Comparison</t>
   </si>
   <si>
@@ -116,37 +77,16 @@
     <t>llama3_8b-instruct-fp16 vs llama3_8b-instruct-sentiment_analysis-fp16</t>
   </si>
   <si>
-    <t>llama3_8b-instruct-q4_K_M vs llama3_8b-instruct-sentiment_analysis-q4_K_M</t>
-  </si>
-  <si>
-    <t>llama3_8b-instruct-q5_K_M vs llama3_8b-instruct-sentiment_analysis-q5_K_M</t>
-  </si>
-  <si>
-    <t>llama3_8b-instruct-q8_0 vs llama3_8b-instruct-sentiment_analysis-q8_0</t>
-  </si>
-  <si>
     <t>mistral_7b-instruct-fp16 vs llama3_8b-instruct-fp16</t>
   </si>
   <si>
-    <t>mistral_7b-instruct-q4_K_M vs llama3_8b-instruct-q4_K_M</t>
-  </si>
-  <si>
-    <t>mistral_7b-instruct-q5_K_M vs llama3_8b-instruct-q5_K_M</t>
-  </si>
-  <si>
-    <t>mistral_7b-instruct-q8_0 vs llama3_8b-instruct-q8_0</t>
-  </si>
-  <si>
     <t>dolphin-mistral_7b-v2.8-fp16 vs mistral_7b-instruct-fp16</t>
   </si>
   <si>
-    <t>dolphin-mistral_7b-v2.8-q4_K_M vs mistral_7b-instruct-q4_K_M</t>
-  </si>
-  <si>
-    <t>dolphin-mistral_7b-v2.8-q5_K_M vs mistral_7b-instruct-q5_K_M</t>
-  </si>
-  <si>
-    <t>dolphin-mistral_7b-v2.8-q8_0 vs mistral_7b-instruct-q8_0</t>
+    <t>mistral-7b-sentiment-may-18-2024-1epoch-unsloth.F16 vs mistral_7b-instruct-fp16</t>
+  </si>
+  <si>
+    <t>mistral-7b-sentiment-may-18-2024-1epoch-unsloth.F16 vs llama3_8b-instruct-sentiment_analysis-fp16</t>
   </si>
 </sst>
 </file>
@@ -504,7 +444,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -538,22 +478,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C2">
-        <v>3.485</v>
+        <v>7.841</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2">
-        <v>0.12</v>
+        <v>0.21</v>
       </c>
       <c r="F2">
-        <v>0.501</v>
+        <v>0.356</v>
       </c>
       <c r="G2">
-        <v>0.8129999999999999</v>
+        <v>0.768</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -561,22 +501,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C3">
-        <v>4.158</v>
+        <v>7.839</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3">
-        <v>0.116</v>
+        <v>0.176</v>
       </c>
       <c r="F3">
-        <v>0.595</v>
+        <v>0.364</v>
       </c>
       <c r="G3">
-        <v>0.856</v>
+        <v>0.852</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -584,22 +524,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C4">
-        <v>4.847</v>
+        <v>8.464</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.125</v>
+        <v>0.13</v>
       </c>
       <c r="F4">
-        <v>0.534</v>
+        <v>0.482</v>
       </c>
       <c r="G4">
-        <v>0.832</v>
+        <v>0.772</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -607,22 +547,22 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C5">
-        <v>7.952</v>
+        <v>8.858000000000001</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0.764</v>
       </c>
       <c r="E5">
-        <v>0.141</v>
+        <v>0.093</v>
       </c>
       <c r="F5">
-        <v>0.535</v>
+        <v>0.455</v>
       </c>
       <c r="G5">
-        <v>0.837</v>
+        <v>0.853</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -630,275 +570,22 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C6">
-        <v>3.537</v>
+        <v>8.718999999999999</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6">
-        <v>0.298</v>
+        <v>0.098</v>
       </c>
       <c r="F6">
-        <v>0.361</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="G6">
-        <v>0.866</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7">
-        <v>4.281</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>0.36</v>
-      </c>
-      <c r="F7">
-        <v>0.311</v>
-      </c>
-      <c r="G7">
-        <v>0.867</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8">
-        <v>4.936</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>0.309</v>
-      </c>
-      <c r="F8">
-        <v>0.371</v>
-      </c>
-      <c r="G8">
-        <v>0.867</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9">
-        <v>7.936</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>0.302</v>
-      </c>
-      <c r="F9">
-        <v>0.354</v>
-      </c>
-      <c r="G9">
-        <v>0.876</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10">
-        <v>4.07</v>
-      </c>
-      <c r="D10">
-        <v>0.6879999999999999</v>
-      </c>
-      <c r="E10">
-        <v>0.138</v>
-      </c>
-      <c r="F10">
-        <v>0.405</v>
-      </c>
-      <c r="G10">
-        <v>0.881</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11">
-        <v>4.578</v>
-      </c>
-      <c r="D11">
-        <v>0.768</v>
-      </c>
-      <c r="E11">
-        <v>0.113</v>
-      </c>
-      <c r="F11">
-        <v>0.463</v>
-      </c>
-      <c r="G11">
-        <v>0.859</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12">
-        <v>5.159</v>
-      </c>
-      <c r="D12">
-        <v>0.741</v>
-      </c>
-      <c r="E12">
-        <v>0.134</v>
-      </c>
-      <c r="F12">
-        <v>0.43</v>
-      </c>
-      <c r="G12">
-        <v>0.864</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13">
-        <v>8.467000000000001</v>
-      </c>
-      <c r="D13">
-        <v>0.696</v>
-      </c>
-      <c r="E13">
-        <v>0.155</v>
-      </c>
-      <c r="F13">
-        <v>0.445</v>
-      </c>
-      <c r="G13">
-        <v>0.871</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14">
-        <v>3.827</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>0.1</v>
-      </c>
-      <c r="F14">
-        <v>0.605</v>
-      </c>
-      <c r="G14">
-        <v>0.867</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15">
-        <v>5.009</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <v>0.248</v>
-      </c>
-      <c r="F15">
-        <v>0.365</v>
-      </c>
-      <c r="G15">
-        <v>0.836</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16">
-        <v>5.441</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <v>0.226</v>
-      </c>
-      <c r="F16">
-        <v>0.394</v>
-      </c>
-      <c r="G16">
-        <v>0.845</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17">
-        <v>8.872</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17">
-        <v>0.195</v>
-      </c>
-      <c r="F17">
-        <v>0.45</v>
-      </c>
-      <c r="G17">
-        <v>0.85</v>
+        <v>0.853</v>
       </c>
     </row>
   </sheetData>
@@ -908,7 +595,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -916,67 +603,67 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B2">
-        <v>8.234999999999999</v>
+        <v>0.047</v>
       </c>
       <c r="C2">
-        <v>0.005</v>
+        <v>0.829</v>
       </c>
       <c r="D2">
-        <v>-2.87</v>
+        <v>0.216</v>
       </c>
       <c r="E2">
-        <v>0.005</v>
+        <v>0.829</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="B3">
-        <v>5.184</v>
+        <v>7.12</v>
       </c>
       <c r="C3">
-        <v>0.024</v>
+        <v>0.008</v>
       </c>
       <c r="D3">
-        <v>-2.277</v>
+        <v>2.668</v>
       </c>
       <c r="E3">
-        <v>0.024</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="B4">
-        <v>18.747</v>
+        <v>14.247</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>-4.33</v>
+        <v>3.775</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -984,155 +671,36 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="B5">
-        <v>6.821</v>
+        <v>0.796</v>
       </c>
       <c r="C5">
-        <v>0.01</v>
+        <v>0.373</v>
       </c>
       <c r="D5">
-        <v>-2.612</v>
+        <v>0.892</v>
       </c>
       <c r="E5">
-        <v>0.01</v>
+        <v>0.373</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B6">
-        <v>1.558</v>
+        <v>13.072</v>
       </c>
       <c r="C6">
-        <v>0.214</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>1.248</v>
+        <v>3.616</v>
       </c>
       <c r="E6">
-        <v>0.214</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7">
-        <v>0.372</v>
-      </c>
-      <c r="C7">
-        <v>0.542</v>
-      </c>
-      <c r="D7">
-        <v>0.61</v>
-      </c>
-      <c r="E7">
-        <v>0.542</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8">
-        <v>4.425</v>
-      </c>
-      <c r="C8">
-        <v>0.037</v>
-      </c>
-      <c r="D8">
-        <v>2.104</v>
-      </c>
-      <c r="E8">
-        <v>0.037</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9">
-        <v>0.712</v>
-      </c>
-      <c r="C9">
-        <v>0.4</v>
-      </c>
-      <c r="D9">
-        <v>0.844</v>
-      </c>
-      <c r="E9">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10">
-        <v>0.007</v>
-      </c>
-      <c r="C10">
-        <v>0.9350000000000001</v>
-      </c>
-      <c r="D10">
-        <v>0.081</v>
-      </c>
-      <c r="E10">
-        <v>0.9350000000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11">
-        <v>15.542</v>
-      </c>
-      <c r="C11">
         <v>0</v>
-      </c>
-      <c r="D11">
-        <v>3.942</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12">
-        <v>2.458</v>
-      </c>
-      <c r="C12">
-        <v>0.119</v>
-      </c>
-      <c r="D12">
-        <v>-1.568</v>
-      </c>
-      <c r="E12">
-        <v>0.119</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13">
-        <v>0.338</v>
-      </c>
-      <c r="C13">
-        <v>0.5620000000000001</v>
-      </c>
-      <c r="D13">
-        <v>-0.581</v>
-      </c>
-      <c r="E13">
-        <v>0.5620000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/reports/model_comparisons.xlsx
+++ b/reports/model_comparisons.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="60">
   <si>
     <t>Model Name</t>
   </si>
@@ -38,24 +38,87 @@
     <t>Mean Confidence</t>
   </si>
   <si>
+    <t>llama3_8b-instruct-sentiment_analysis-q4_K_M</t>
+  </si>
+  <si>
+    <t>llama3_8b-instruct-sentiment_analysis-q5_K_M</t>
+  </si>
+  <si>
+    <t>llama3_8b-instruct-sentiment_analysis-q8_0</t>
+  </si>
+  <si>
     <t>llama3_8b-instruct-sentiment_analysis-fp16</t>
   </si>
   <si>
+    <t>llama3_8b-instruct-q4_K_M</t>
+  </si>
+  <si>
+    <t>llama3_8b-instruct-q5_K_M</t>
+  </si>
+  <si>
+    <t>llama3_8b-instruct-q8_0</t>
+  </si>
+  <si>
     <t>llama3_8b-instruct-fp16</t>
   </si>
   <si>
+    <t>mistral-7b-sentiment-may-18-2024-1epoch-unsloth.Q4_K_M</t>
+  </si>
+  <si>
+    <t>mistral-7b-sentiment-may-18-2024-1epoch-unsloth.Q5_K_M</t>
+  </si>
+  <si>
+    <t>mistral-7b-sentiment-may-18-2024-1epoch-unsloth.Q8</t>
+  </si>
+  <si>
     <t>mistral-7b-sentiment-may-18-2024-1epoch-unsloth.F16</t>
   </si>
   <si>
+    <t>mistral_7b-instruct-q4_K_M</t>
+  </si>
+  <si>
+    <t>mistral_7b-instruct-q5_K_M</t>
+  </si>
+  <si>
+    <t>mistral_7b-instruct-q8_0</t>
+  </si>
+  <si>
     <t>mistral_7b-instruct-fp16</t>
   </si>
   <si>
+    <t>dolphin-mistral_7b-v2.8-q4_K_M</t>
+  </si>
+  <si>
+    <t>dolphin-mistral_7b-v2.8-q5_K_M</t>
+  </si>
+  <si>
+    <t>dolphin-mistral_7b-v2.8-q8_0</t>
+  </si>
+  <si>
     <t>dolphin-mistral_7b-v2.8-fp16</t>
   </si>
   <si>
+    <t>q4_K_M</t>
+  </si>
+  <si>
+    <t>q5_K_M</t>
+  </si>
+  <si>
+    <t>q8_0</t>
+  </si>
+  <si>
     <t>fp16</t>
   </si>
   <si>
+    <t>unsloth.Q4_K_M</t>
+  </si>
+  <si>
+    <t>unsloth.Q5_K_M</t>
+  </si>
+  <si>
+    <t>unsloth.Q8</t>
+  </si>
+  <si>
     <t>unsloth.F16</t>
   </si>
   <si>
@@ -77,16 +140,61 @@
     <t>llama3_8b-instruct-fp16 vs llama3_8b-instruct-sentiment_analysis-fp16</t>
   </si>
   <si>
+    <t>llama3_8b-instruct-q4_K_M vs llama3_8b-instruct-sentiment_analysis-q4_K_M</t>
+  </si>
+  <si>
+    <t>llama3_8b-instruct-q5_K_M vs llama3_8b-instruct-sentiment_analysis-q5_K_M</t>
+  </si>
+  <si>
+    <t>llama3_8b-instruct-q8_0 vs llama3_8b-instruct-sentiment_analysis-q8_0</t>
+  </si>
+  <si>
     <t>mistral_7b-instruct-fp16 vs llama3_8b-instruct-fp16</t>
   </si>
   <si>
+    <t>mistral_7b-instruct-q4_K_M vs llama3_8b-instruct-q4_K_M</t>
+  </si>
+  <si>
+    <t>mistral_7b-instruct-q5_K_M vs llama3_8b-instruct-q5_K_M</t>
+  </si>
+  <si>
+    <t>mistral_7b-instruct-q8_0 vs llama3_8b-instruct-q8_0</t>
+  </si>
+  <si>
     <t>dolphin-mistral_7b-v2.8-fp16 vs mistral_7b-instruct-fp16</t>
   </si>
   <si>
+    <t>dolphin-mistral_7b-v2.8-q4_K_M vs mistral_7b-instruct-q4_K_M</t>
+  </si>
+  <si>
+    <t>dolphin-mistral_7b-v2.8-q5_K_M vs mistral_7b-instruct-q5_K_M</t>
+  </si>
+  <si>
+    <t>dolphin-mistral_7b-v2.8-q8_0 vs mistral_7b-instruct-q8_0</t>
+  </si>
+  <si>
     <t>mistral-7b-sentiment-may-18-2024-1epoch-unsloth.F16 vs mistral_7b-instruct-fp16</t>
   </si>
   <si>
+    <t>mistral-7b-sentiment-may-18-2024-1epoch-unsloth.Q4_K_M vs mistral_7b-instruct-q4_K_M</t>
+  </si>
+  <si>
+    <t>mistral-7b-sentiment-may-18-2024-1epoch-unsloth.Q5_K_M vs mistral_7b-instruct-q5_K_M</t>
+  </si>
+  <si>
+    <t>mistral-7b-sentiment-may-18-2024-1epoch-unsloth.Q8 vs mistral_7b-instruct-q8_0</t>
+  </si>
+  <si>
     <t>mistral-7b-sentiment-may-18-2024-1epoch-unsloth.F16 vs llama3_8b-instruct-sentiment_analysis-fp16</t>
+  </si>
+  <si>
+    <t>mistral-7b-sentiment-may-18-2024-1epoch-unsloth.Q4_K_M vs llama3_8b-instruct-sentiment_analysis-q4_K_M</t>
+  </si>
+  <si>
+    <t>mistral-7b-sentiment-may-18-2024-1epoch-unsloth.Q5_K_M vs llama3_8b-instruct-sentiment_analysis-q5_K_M</t>
+  </si>
+  <si>
+    <t>mistral-7b-sentiment-may-18-2024-1epoch-unsloth.Q8 vs llama3_8b-instruct-sentiment_analysis-q8_0</t>
   </si>
 </sst>
 </file>
@@ -444,7 +552,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -478,22 +586,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="C2">
-        <v>7.841</v>
+        <v>3.652</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2">
-        <v>0.21</v>
+        <v>0.199</v>
       </c>
       <c r="F2">
-        <v>0.356</v>
+        <v>0.352</v>
       </c>
       <c r="G2">
-        <v>0.768</v>
+        <v>0.774</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -501,22 +609,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C3">
-        <v>7.839</v>
+        <v>4.418</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3">
-        <v>0.176</v>
+        <v>0.182</v>
       </c>
       <c r="F3">
-        <v>0.364</v>
+        <v>0.367</v>
       </c>
       <c r="G3">
-        <v>0.852</v>
+        <v>0.771</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -524,22 +632,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="C4">
-        <v>8.464</v>
+        <v>4.983</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="E4">
-        <v>0.13</v>
+        <v>0.214</v>
       </c>
       <c r="F4">
-        <v>0.482</v>
+        <v>0.356</v>
       </c>
       <c r="G4">
-        <v>0.772</v>
+        <v>0.771</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -547,22 +655,22 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="C5">
-        <v>8.858000000000001</v>
+        <v>7.841</v>
       </c>
       <c r="D5">
-        <v>0.764</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>0.093</v>
+        <v>0.21</v>
       </c>
       <c r="F5">
-        <v>0.455</v>
+        <v>0.356</v>
       </c>
       <c r="G5">
-        <v>0.853</v>
+        <v>0.768</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -570,21 +678,366 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6">
+        <v>3.745</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>0.161</v>
+      </c>
+      <c r="F6">
+        <v>0.413</v>
+      </c>
+      <c r="G6">
+        <v>0.869</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="C6">
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7">
+        <v>4.429</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>0.178</v>
+      </c>
+      <c r="F7">
+        <v>0.385</v>
+      </c>
+      <c r="G7">
+        <v>0.855</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8">
+        <v>4.958</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>0.177</v>
+      </c>
+      <c r="F8">
+        <v>0.373</v>
+      </c>
+      <c r="G8">
+        <v>0.848</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9">
+        <v>7.839</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>0.176</v>
+      </c>
+      <c r="F9">
+        <v>0.364</v>
+      </c>
+      <c r="G9">
+        <v>0.852</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10">
+        <v>3.963</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>0.145</v>
+      </c>
+      <c r="F10">
+        <v>0.479</v>
+      </c>
+      <c r="G10">
+        <v>0.774</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11">
+        <v>4.793</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>0.134</v>
+      </c>
+      <c r="F11">
+        <v>0.484</v>
+      </c>
+      <c r="G11">
+        <v>0.771</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12">
+        <v>5.331</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>0.126</v>
+      </c>
+      <c r="F12">
+        <v>0.499</v>
+      </c>
+      <c r="G12">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13">
+        <v>8.464</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>0.13</v>
+      </c>
+      <c r="F13">
+        <v>0.482</v>
+      </c>
+      <c r="G13">
+        <v>0.772</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14">
+        <v>4.364</v>
+      </c>
+      <c r="D14">
+        <v>0.725</v>
+      </c>
+      <c r="E14">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F14">
+        <v>0.46</v>
+      </c>
+      <c r="G14">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15">
+        <v>5.277</v>
+      </c>
+      <c r="D15">
+        <v>0.796</v>
+      </c>
+      <c r="E15">
+        <v>0.094</v>
+      </c>
+      <c r="F15">
+        <v>0.485</v>
+      </c>
+      <c r="G15">
+        <v>0.855</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16">
+        <v>5.718</v>
+      </c>
+      <c r="D16">
+        <v>0.8139999999999999</v>
+      </c>
+      <c r="E16">
+        <v>0.067</v>
+      </c>
+      <c r="F16">
+        <v>0.497</v>
+      </c>
+      <c r="G16">
+        <v>0.855</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17">
+        <v>8.858000000000001</v>
+      </c>
+      <c r="D17">
+        <v>0.764</v>
+      </c>
+      <c r="E17">
+        <v>0.093</v>
+      </c>
+      <c r="F17">
+        <v>0.455</v>
+      </c>
+      <c r="G17">
+        <v>0.853</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18">
+        <v>3.963</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>0.076</v>
+      </c>
+      <c r="F18">
+        <v>0.593</v>
+      </c>
+      <c r="G18">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19">
+        <v>5.085</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>0.097</v>
+      </c>
+      <c r="F19">
+        <v>0.55</v>
+      </c>
+      <c r="G19">
+        <v>0.835</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20">
+        <v>5.489</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>0.094</v>
+      </c>
+      <c r="F20">
+        <v>0.571</v>
+      </c>
+      <c r="G20">
+        <v>0.852</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21">
         <v>8.718999999999999</v>
       </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
         <v>0.098</v>
       </c>
-      <c r="F6">
+      <c r="F21">
         <v>0.5610000000000001</v>
       </c>
-      <c r="G6">
+      <c r="G21">
         <v>0.853</v>
       </c>
     </row>
@@ -595,7 +1048,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -603,24 +1056,24 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="B2">
         <v>0.047</v>
@@ -637,69 +1090,324 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B3">
-        <v>7.12</v>
+        <v>2.927</v>
       </c>
       <c r="C3">
-        <v>0.008</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="D3">
-        <v>2.668</v>
+        <v>1.711</v>
       </c>
       <c r="E3">
-        <v>0.008</v>
+        <v>0.08799999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B4">
-        <v>14.247</v>
+        <v>0.252</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.616</v>
       </c>
       <c r="D4">
-        <v>3.775</v>
+        <v>0.502</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.616</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B5">
-        <v>0.796</v>
+        <v>0.21</v>
       </c>
       <c r="C5">
-        <v>0.373</v>
+        <v>0.647</v>
       </c>
       <c r="D5">
-        <v>0.892</v>
+        <v>0.459</v>
       </c>
       <c r="E5">
-        <v>0.373</v>
+        <v>0.647</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B6">
+        <v>7.12</v>
+      </c>
+      <c r="C6">
+        <v>0.008</v>
+      </c>
+      <c r="D6">
+        <v>2.668</v>
+      </c>
+      <c r="E6">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7">
+        <v>1.932</v>
+      </c>
+      <c r="C7">
+        <v>0.165</v>
+      </c>
+      <c r="D7">
+        <v>1.39</v>
+      </c>
+      <c r="E7">
+        <v>0.165</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8">
+        <v>8.731999999999999</v>
+      </c>
+      <c r="C8">
+        <v>0.003</v>
+      </c>
+      <c r="D8">
+        <v>2.955</v>
+      </c>
+      <c r="E8">
+        <v>0.003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9">
+        <v>15.107</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>3.887</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10">
+        <v>14.247</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>3.775</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11">
+        <v>25.931</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>5.092</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12">
+        <v>5.551</v>
+      </c>
+      <c r="C12">
+        <v>0.019</v>
+      </c>
+      <c r="D12">
+        <v>2.356</v>
+      </c>
+      <c r="E12">
+        <v>0.019</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13">
+        <v>8.468</v>
+      </c>
+      <c r="C13">
+        <v>0.004</v>
+      </c>
+      <c r="D13">
+        <v>2.91</v>
+      </c>
+      <c r="E13">
+        <v>0.004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14">
+        <v>0.796</v>
+      </c>
+      <c r="C14">
+        <v>0.373</v>
+      </c>
+      <c r="D14">
+        <v>0.892</v>
+      </c>
+      <c r="E14">
+        <v>0.373</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15">
+        <v>0.383</v>
+      </c>
+      <c r="C15">
+        <v>0.536</v>
+      </c>
+      <c r="D15">
+        <v>0.619</v>
+      </c>
+      <c r="E15">
+        <v>0.536</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0.992</v>
+      </c>
+      <c r="D16">
+        <v>-0.008999999999999999</v>
+      </c>
+      <c r="E16">
+        <v>0.992</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17">
+        <v>0.007</v>
+      </c>
+      <c r="C17">
+        <v>0.9350000000000001</v>
+      </c>
+      <c r="D17">
+        <v>0.082</v>
+      </c>
+      <c r="E17">
+        <v>0.9350000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18">
         <v>13.072</v>
       </c>
-      <c r="C6">
+      <c r="C18">
         <v>0</v>
       </c>
-      <c r="D6">
+      <c r="D18">
         <v>3.616</v>
       </c>
-      <c r="E6">
+      <c r="E18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19">
+        <v>13.178</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>3.63</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20">
+        <v>12.211</v>
+      </c>
+      <c r="C20">
+        <v>0.001</v>
+      </c>
+      <c r="D20">
+        <v>3.494</v>
+      </c>
+      <c r="E20">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21">
+        <v>16.932</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>4.115</v>
+      </c>
+      <c r="E21">
         <v>0</v>
       </c>
     </row>
